--- a/commands/generate/default-templates/Structure_Example.xlsx
+++ b/commands/generate/default-templates/Structure_Example.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Default" sheetId="5" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="76">
   <si>
     <t>Комментарии</t>
   </si>
@@ -206,6 +206,54 @@
   </si>
   <si>
     <t>Название 4</t>
+  </si>
+  <si>
+    <t>Назва 5</t>
+  </si>
+  <si>
+    <t>Назва 6</t>
+  </si>
+  <si>
+    <t>Назва 7</t>
+  </si>
+  <si>
+    <t>Назва 8</t>
+  </si>
+  <si>
+    <t>Назва 9</t>
+  </si>
+  <si>
+    <t>Назва 10</t>
+  </si>
+  <si>
+    <t>Назва 11</t>
+  </si>
+  <si>
+    <t>Назва 12</t>
+  </si>
+  <si>
+    <t>Название 5</t>
+  </si>
+  <si>
+    <t>Название 6</t>
+  </si>
+  <si>
+    <t>Название 7</t>
+  </si>
+  <si>
+    <t>Название 8</t>
+  </si>
+  <si>
+    <t>Название 9</t>
+  </si>
+  <si>
+    <t>Название 10</t>
+  </si>
+  <si>
+    <t>Название 11</t>
+  </si>
+  <si>
+    <t>Название 12</t>
   </si>
 </sst>
 </file>
@@ -239,7 +287,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -252,8 +300,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="43">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -293,19 +353,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -345,7 +392,7 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -357,79 +404,12 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -462,21 +442,6 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -583,10 +548,8 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
+      <right/>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -599,10 +562,15 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -612,65 +580,8 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -679,66 +590,35 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
@@ -749,45 +629,25 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -797,12 +657,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -811,26 +671,26 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -839,34 +699,28 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -875,16 +729,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -896,287 +759,297 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="48">
+  <dxfs count="45">
     <dxf>
       <font>
+        <b/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -1186,26 +1059,23 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
+        <left style="medium">
           <color indexed="64"/>
         </left>
         <right style="medium">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
+        <top style="medium">
+          <color auto="1"/>
         </top>
-        <bottom style="thin">
-          <color indexed="64"/>
+        <bottom style="medium">
+          <color auto="1"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
+        <vertical/>
+        <horizontal style="medium">
+          <color auto="1"/>
         </horizontal>
       </border>
     </dxf>
@@ -1223,23 +1093,86 @@
       </font>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
+        <left style="medium">
           <color indexed="64"/>
         </left>
-        <right style="thin">
+        <right style="medium">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
+        <top style="medium">
+          <color auto="1"/>
         </top>
-        <bottom style="thin">
-          <color indexed="64"/>
+        <bottom style="medium">
+          <color auto="1"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
+        <vertical/>
+        <horizontal style="medium">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="medium">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="medium">
+          <color auto="1"/>
         </horizontal>
       </border>
     </dxf>
@@ -1257,23 +1190,85 @@
       </font>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
+        <left style="medium">
           <color indexed="64"/>
         </left>
-        <right style="thin">
+        <right style="medium">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
+        <top style="medium">
+          <color auto="1"/>
         </top>
-        <bottom style="thin">
-          <color indexed="64"/>
+        <bottom style="medium">
+          <color auto="1"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
+        <vertical/>
+        <horizontal style="medium">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="medium">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="medium">
+          <color auto="1"/>
         </horizontal>
       </border>
     </dxf>
@@ -1290,6 +1285,403 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="medium">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="medium">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="medium">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="medium">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="medium">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="medium">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="medium">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -1472,6 +1864,74 @@
       </border>
     </dxf>
     <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -1902,548 +2362,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
       <border>
         <top style="thin">
           <color indexed="64"/>
@@ -2525,66 +2443,66 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица1" displayName="Таблица1" ref="B2:L14" totalsRowShown="0" headerRowDxfId="47" dataDxfId="45" headerRowBorderDxfId="46" tableBorderDxfId="44" totalsRowBorderDxfId="43">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица1" displayName="Таблица1" ref="B2:L14" totalsRowShown="0" headerRowDxfId="44" dataDxfId="42" headerRowBorderDxfId="43" tableBorderDxfId="41" totalsRowBorderDxfId="40">
   <autoFilter ref="B2:L14"/>
   <tableColumns count="11">
-    <tableColumn id="9" name="FlowName.ua" dataDxfId="18"/>
-    <tableColumn id="8" name="FlowName.ru" dataDxfId="17"/>
-    <tableColumn id="13" name="#1" dataDxfId="16"/>
-    <tableColumn id="4" name="SlideName.ua" dataDxfId="15"/>
-    <tableColumn id="3" name="SlideName.ru" dataDxfId="14"/>
-    <tableColumn id="11" name="#2" dataDxfId="13"/>
-    <tableColumn id="5" name="ID" dataDxfId="12">
+    <tableColumn id="9" name="FlowName.ua" dataDxfId="39"/>
+    <tableColumn id="8" name="FlowName.ru" dataDxfId="38"/>
+    <tableColumn id="13" name="#1" dataDxfId="37"/>
+    <tableColumn id="4" name="SlideName.ua" dataDxfId="36"/>
+    <tableColumn id="3" name="SlideName.ru" dataDxfId="35"/>
+    <tableColumn id="11" name="#2" dataDxfId="34"/>
+    <tableColumn id="5" name="ID" dataDxfId="33">
       <calculatedColumnFormula>"slide-"&amp;D3&amp;"_"&amp;G3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Swipe.prev" dataDxfId="11"/>
-    <tableColumn id="6" name="Swipe.next" dataDxfId="10"/>
-    <tableColumn id="7" name="Комментарии" dataDxfId="9"/>
-    <tableColumn id="12" name="Переходы" dataDxfId="8"/>
+    <tableColumn id="10" name="Swipe.prev" dataDxfId="32"/>
+    <tableColumn id="6" name="Swipe.next" dataDxfId="31"/>
+    <tableColumn id="7" name="Комментарии" dataDxfId="30"/>
+    <tableColumn id="12" name="Переходы" dataDxfId="29"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Таблица14" displayName="Таблица14" ref="B2:I14" totalsRowShown="0" headerRowDxfId="42" dataDxfId="40" headerRowBorderDxfId="41" tableBorderDxfId="39" totalsRowBorderDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Таблица14" displayName="Таблица14" ref="B2:I14" totalsRowShown="0" headerRowDxfId="28" dataDxfId="26" headerRowBorderDxfId="27" tableBorderDxfId="25" totalsRowBorderDxfId="24">
   <autoFilter ref="B2:I14"/>
   <tableColumns count="8">
-    <tableColumn id="4" name="SlideName.ua" dataDxfId="7"/>
-    <tableColumn id="3" name="SlideName.ru" dataDxfId="6"/>
-    <tableColumn id="11" name="#2" dataDxfId="5"/>
-    <tableColumn id="5" name="ID" dataDxfId="4">
+    <tableColumn id="4" name="SlideName.ua" dataDxfId="23"/>
+    <tableColumn id="3" name="SlideName.ru" dataDxfId="22"/>
+    <tableColumn id="11" name="#1" dataDxfId="21"/>
+    <tableColumn id="5" name="ID" dataDxfId="20">
       <calculatedColumnFormula>"slide-"&amp;D3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Swipe.prev" dataDxfId="3"/>
-    <tableColumn id="6" name="Swipe.next" dataDxfId="2"/>
-    <tableColumn id="7" name="Комментарии" dataDxfId="1"/>
-    <tableColumn id="12" name="Переходы" dataDxfId="0"/>
+    <tableColumn id="10" name="Swipe.prev" dataDxfId="15"/>
+    <tableColumn id="6" name="Swipe.next" dataDxfId="14"/>
+    <tableColumn id="7" name="Комментарии" dataDxfId="19"/>
+    <tableColumn id="12" name="Переходы" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица12" displayName="Таблица12" ref="B2:O52" totalsRowShown="0" headerRowDxfId="37" dataDxfId="35" headerRowBorderDxfId="36" tableBorderDxfId="34" totalsRowBorderDxfId="33">
-  <autoFilter ref="B2:O52"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица12" displayName="Таблица12" ref="B2:O51" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+  <autoFilter ref="B2:O51"/>
   <tableColumns count="14">
-    <tableColumn id="4" name="SuperFlowName.ua" dataDxfId="32"/>
-    <tableColumn id="1" name="SuperFlowName.ua2" dataDxfId="31"/>
-    <tableColumn id="9" name="#1" dataDxfId="30"/>
-    <tableColumn id="13" name="FlowName.ru" dataDxfId="29"/>
-    <tableColumn id="2" name="FlowName.ua" dataDxfId="28"/>
-    <tableColumn id="8" name="#2" dataDxfId="27"/>
-    <tableColumn id="14" name="SlideName.ru" dataDxfId="26"/>
-    <tableColumn id="3" name="SlideName.ua" dataDxfId="25"/>
-    <tableColumn id="11" name="#3" dataDxfId="24"/>
-    <tableColumn id="5" name="ID" dataDxfId="23">
+    <tableColumn id="4" name="SuperFlowName.ua" dataDxfId="13"/>
+    <tableColumn id="1" name="SuperFlowName.ua2" dataDxfId="12"/>
+    <tableColumn id="9" name="#1" dataDxfId="0"/>
+    <tableColumn id="13" name="FlowName.ru" dataDxfId="11"/>
+    <tableColumn id="2" name="FlowName.ua" dataDxfId="1"/>
+    <tableColumn id="8" name="#2" dataDxfId="2"/>
+    <tableColumn id="14" name="SlideName.ru" dataDxfId="10"/>
+    <tableColumn id="3" name="SlideName.ua" dataDxfId="9"/>
+    <tableColumn id="11" name="#3" dataDxfId="8"/>
+    <tableColumn id="5" name="ID" dataDxfId="7">
       <calculatedColumnFormula>"slide-"&amp;D3&amp;"_"&amp;G3&amp;"_"&amp;Таблица12[[#This Row],['#3]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Swipe.prev" dataDxfId="22"/>
-    <tableColumn id="6" name="Swipe.next" dataDxfId="21"/>
-    <tableColumn id="7" name="Комментарии" dataDxfId="20"/>
-    <tableColumn id="12" name="Переходы" dataDxfId="19"/>
+    <tableColumn id="10" name="Swipe.prev" dataDxfId="6"/>
+    <tableColumn id="6" name="Swipe.next" dataDxfId="5"/>
+    <tableColumn id="7" name="Комментарии" dataDxfId="4"/>
+    <tableColumn id="12" name="Переходы" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2855,7 +2773,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
@@ -2912,7 +2830,7 @@
       </c>
     </row>
     <row r="3" spans="2:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="B3" s="112" t="s">
+      <c r="B3" s="43" t="s">
         <v>49</v>
       </c>
       <c r="C3" s="16" t="s">
@@ -2927,7 +2845,7 @@
       <c r="F3" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G3" s="121">
+      <c r="G3" s="51">
         <v>1</v>
       </c>
       <c r="H3" s="1" t="str">
@@ -2943,7 +2861,7 @@
       <c r="L3" s="19"/>
     </row>
     <row r="4" spans="2:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="B4" s="113"/>
+      <c r="B4" s="44"/>
       <c r="C4" s="17"/>
       <c r="D4" s="17">
         <v>1</v>
@@ -2954,7 +2872,7 @@
       <c r="F4" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G4" s="118">
+      <c r="G4" s="48">
         <v>2</v>
       </c>
       <c r="H4" s="3" t="str">
@@ -2967,7 +2885,7 @@
       <c r="L4" s="5"/>
     </row>
     <row r="5" spans="2:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="B5" s="113"/>
+      <c r="B5" s="44"/>
       <c r="C5" s="17"/>
       <c r="D5" s="17">
         <v>1</v>
@@ -2978,7 +2896,7 @@
       <c r="F5" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="G5" s="118">
+      <c r="G5" s="48">
         <v>3</v>
       </c>
       <c r="H5" s="3" t="str">
@@ -2997,9 +2915,9 @@
       <c r="L5" s="5"/>
     </row>
     <row r="6" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="114"/>
-      <c r="C6" s="107"/>
-      <c r="D6" s="107">
+      <c r="B6" s="45"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38">
         <v>1</v>
       </c>
       <c r="E6" s="8" t="s">
@@ -3008,7 +2926,7 @@
       <c r="F6" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="G6" s="122">
+      <c r="G6" s="52">
         <v>4</v>
       </c>
       <c r="H6" s="7" t="str">
@@ -3030,23 +2948,23 @@
       <c r="D7" s="18">
         <v>2</v>
       </c>
-      <c r="E7" s="111" t="s">
+      <c r="E7" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="F7" s="111" t="s">
+      <c r="F7" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="G7" s="119">
+      <c r="G7" s="49">
         <v>1</v>
       </c>
-      <c r="H7" s="120" t="str">
+      <c r="H7" s="50" t="str">
         <f t="shared" si="0"/>
         <v>slide-2_1</v>
       </c>
-      <c r="I7" s="120"/>
-      <c r="J7" s="120"/>
-      <c r="K7" s="120"/>
-      <c r="L7" s="120"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
     </row>
     <row r="8" spans="2:12" ht="15" x14ac:dyDescent="0.2">
       <c r="B8" s="17"/>
@@ -3060,7 +2978,7 @@
       <c r="F8" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G8" s="118">
+      <c r="G8" s="48">
         <v>2</v>
       </c>
       <c r="H8" s="3" t="str">
@@ -3084,7 +3002,7 @@
       <c r="F9" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="G9" s="118">
+      <c r="G9" s="48">
         <v>3</v>
       </c>
       <c r="H9" s="3" t="str">
@@ -3097,31 +3015,31 @@
       <c r="L9" s="3"/>
     </row>
     <row r="10" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="108"/>
-      <c r="C10" s="108"/>
-      <c r="D10" s="108">
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39">
         <v>2</v>
       </c>
-      <c r="E10" s="109" t="s">
+      <c r="E10" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="F10" s="109" t="s">
+      <c r="F10" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="G10" s="123">
+      <c r="G10" s="53">
         <v>4</v>
       </c>
-      <c r="H10" s="110" t="str">
+      <c r="H10" s="41" t="str">
         <f t="shared" si="0"/>
         <v>slide-2_4</v>
       </c>
-      <c r="I10" s="110"/>
-      <c r="J10" s="110"/>
-      <c r="K10" s="110"/>
-      <c r="L10" s="110"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="41"/>
     </row>
     <row r="11" spans="2:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="B11" s="112" t="s">
+      <c r="B11" s="43" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="16" t="s">
@@ -3136,7 +3054,7 @@
       <c r="F11" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G11" s="121">
+      <c r="G11" s="51">
         <v>1</v>
       </c>
       <c r="H11" s="1" t="str">
@@ -3146,10 +3064,10 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="1"/>
-      <c r="L11" s="124"/>
+      <c r="L11" s="54"/>
     </row>
     <row r="12" spans="2:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="B12" s="113"/>
+      <c r="B12" s="44"/>
       <c r="C12" s="17"/>
       <c r="D12" s="17" t="s">
         <v>32</v>
@@ -3160,7 +3078,7 @@
       <c r="F12" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G12" s="118">
+      <c r="G12" s="48">
         <v>2</v>
       </c>
       <c r="H12" s="3" t="str">
@@ -3173,7 +3091,7 @@
       <c r="L12" s="6"/>
     </row>
     <row r="13" spans="2:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="B13" s="113"/>
+      <c r="B13" s="44"/>
       <c r="C13" s="17"/>
       <c r="D13" s="17" t="s">
         <v>32</v>
@@ -3184,7 +3102,7 @@
       <c r="F13" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="G13" s="118">
+      <c r="G13" s="48">
         <v>3</v>
       </c>
       <c r="H13" s="3" t="str">
@@ -3197,9 +3115,9 @@
       <c r="L13" s="6"/>
     </row>
     <row r="14" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="114"/>
-      <c r="C14" s="107"/>
-      <c r="D14" s="107" t="s">
+      <c r="B14" s="45"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38" t="s">
         <v>32</v>
       </c>
       <c r="E14" s="8" t="s">
@@ -3208,7 +3126,7 @@
       <c r="F14" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="G14" s="122">
+      <c r="G14" s="52">
         <v>4</v>
       </c>
       <c r="H14" s="7" t="str">
@@ -3234,7 +3152,7 @@
   <dimension ref="B2:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3250,258 +3168,264 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2" s="24" t="s">
+      <c r="D2" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="H2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="I2" s="24" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="3" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B3" s="115" t="s">
+      <c r="B3" s="46" t="s">
         <v>52</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="43">
+      <c r="D3" s="26">
         <v>1</v>
       </c>
-      <c r="E3" s="45" t="str">
+      <c r="E3" s="27" t="str">
         <f t="shared" ref="E3:E14" si="0">"slide-"&amp;D3</f>
         <v>slide-1</v>
       </c>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="106"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="37"/>
     </row>
     <row r="4" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B4" s="116" t="s">
+      <c r="B4" s="47" t="s">
         <v>53</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="51">
+      <c r="D4" s="28">
         <v>2</v>
       </c>
-      <c r="E4" s="53" t="str">
+      <c r="E4" s="30" t="str">
         <f t="shared" si="0"/>
         <v>slide-2</v>
       </c>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="55"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="31"/>
     </row>
     <row r="5" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B5" s="116" t="s">
+      <c r="B5" s="47" t="s">
         <v>54</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="51">
+      <c r="D5" s="28">
         <v>3</v>
       </c>
-      <c r="E5" s="53" t="str">
+      <c r="E5" s="30" t="str">
         <f t="shared" si="0"/>
         <v>slide-3</v>
       </c>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="55"/>
+      <c r="F5" s="30" t="str">
+        <f>E12</f>
+        <v>slide-10</v>
+      </c>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="31"/>
     </row>
     <row r="6" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B6" s="116" t="s">
+      <c r="B6" s="47" t="s">
         <v>55</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D6" s="51">
+      <c r="D6" s="28">
         <v>4</v>
       </c>
-      <c r="E6" s="53" t="str">
+      <c r="E6" s="30" t="str">
         <f t="shared" si="0"/>
         <v>slide-4</v>
       </c>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="55"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="31"/>
     </row>
     <row r="7" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B7" s="116" t="s">
-        <v>52</v>
+      <c r="B7" s="47" t="s">
+        <v>60</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D7" s="51">
+        <v>68</v>
+      </c>
+      <c r="D7" s="28">
         <v>5</v>
       </c>
-      <c r="E7" s="53" t="str">
+      <c r="E7" s="30" t="str">
         <f t="shared" si="0"/>
         <v>slide-5</v>
       </c>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="55"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="31"/>
     </row>
     <row r="8" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B8" s="116" t="s">
-        <v>53</v>
+      <c r="B8" s="47" t="s">
+        <v>61</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" s="51">
+        <v>69</v>
+      </c>
+      <c r="D8" s="28">
         <v>6</v>
       </c>
-      <c r="E8" s="53" t="str">
+      <c r="E8" s="30" t="str">
         <f t="shared" si="0"/>
         <v>slide-6</v>
       </c>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="55"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30" t="str">
+        <f>E13</f>
+        <v>slide-11</v>
+      </c>
+      <c r="H8" s="30"/>
+      <c r="I8" s="31"/>
     </row>
     <row r="9" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B9" s="116" t="s">
-        <v>54</v>
+      <c r="B9" s="47" t="s">
+        <v>62</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" s="51">
+        <v>70</v>
+      </c>
+      <c r="D9" s="28">
         <v>7</v>
       </c>
-      <c r="E9" s="53" t="str">
+      <c r="E9" s="30" t="str">
         <f t="shared" si="0"/>
         <v>slide-7</v>
       </c>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="55"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="31"/>
     </row>
     <row r="10" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B10" s="116" t="s">
-        <v>55</v>
+      <c r="B10" s="47" t="s">
+        <v>63</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10" s="51">
+        <v>71</v>
+      </c>
+      <c r="D10" s="28">
         <v>8</v>
       </c>
-      <c r="E10" s="53" t="str">
+      <c r="E10" s="30" t="str">
         <f t="shared" si="0"/>
         <v>slide-8</v>
       </c>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="55"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="31"/>
     </row>
     <row r="11" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B11" s="116" t="s">
-        <v>52</v>
+      <c r="B11" s="47" t="s">
+        <v>64</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" s="51">
+        <v>72</v>
+      </c>
+      <c r="D11" s="28">
         <v>9</v>
       </c>
-      <c r="E11" s="53" t="str">
+      <c r="E11" s="30" t="str">
         <f t="shared" si="0"/>
         <v>slide-9</v>
       </c>
-      <c r="F11" s="52"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="83"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="35"/>
     </row>
     <row r="12" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B12" s="116" t="s">
-        <v>53</v>
+      <c r="B12" s="47" t="s">
+        <v>65</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" s="51">
+        <v>73</v>
+      </c>
+      <c r="D12" s="28">
         <v>10</v>
       </c>
-      <c r="E12" s="53" t="str">
+      <c r="E12" s="30" t="str">
         <f t="shared" si="0"/>
         <v>slide-10</v>
       </c>
-      <c r="F12" s="52"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="83"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="35"/>
     </row>
     <row r="13" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B13" s="116" t="s">
-        <v>54</v>
+      <c r="B13" s="47" t="s">
+        <v>66</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" s="51">
+        <v>74</v>
+      </c>
+      <c r="D13" s="28">
         <v>11</v>
       </c>
-      <c r="E13" s="53" t="str">
+      <c r="E13" s="30" t="str">
         <f t="shared" si="0"/>
         <v>slide-11</v>
       </c>
-      <c r="F13" s="52"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="83"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="35"/>
     </row>
     <row r="14" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="117" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D14" s="59">
+      <c r="B14" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" s="32">
         <v>12</v>
       </c>
-      <c r="E14" s="61" t="str">
+      <c r="E14" s="34" t="str">
         <f t="shared" si="0"/>
         <v>slide-12</v>
       </c>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="88"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="36"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3513,1562 +3437,1502 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:O52"/>
+  <dimension ref="B2:O51"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.28515625" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="43" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="6.5703125" customWidth="1"/>
+    <col min="5" max="5" width="37" customWidth="1"/>
+    <col min="6" max="6" width="36.7109375" customWidth="1"/>
+    <col min="7" max="7" width="5.85546875" customWidth="1"/>
     <col min="8" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.28515625" customWidth="1"/>
     <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="54.28515625" customWidth="1"/>
+    <col min="15" max="15" width="85" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="H2" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="I2" s="23" t="s">
+      <c r="I2" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="J2" s="23" t="s">
+      <c r="J2" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="K2" s="24" t="s">
+      <c r="K2" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="25" t="s">
+      <c r="L2" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="26" t="s">
+      <c r="M2" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="N2" s="27" t="s">
+      <c r="N2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="O2" s="26" t="s">
+      <c r="O2" s="24" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="3" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="31" t="s">
+      <c r="D3" s="71"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="31"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="33" t="str">
+      <c r="H3" s="99"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="65" t="str">
         <f>"slide-"&amp;G3</f>
         <v>slide-main</v>
       </c>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="36"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="65"/>
+      <c r="N3" s="65"/>
+      <c r="O3" s="65"/>
     </row>
     <row r="4" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="93" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="93" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="38">
+      <c r="D4" s="94">
         <v>1</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="30" t="s">
+      <c r="F4" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="31">
+      <c r="G4" s="96">
         <v>1</v>
       </c>
-      <c r="H4" s="31"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="31">
+      <c r="H4" s="100"/>
+      <c r="I4" s="95"/>
+      <c r="J4" s="96">
         <v>1</v>
       </c>
-      <c r="K4" s="33" t="str">
+      <c r="K4" s="95" t="str">
         <f>"slide-"&amp;D4&amp;"_"&amp;G4&amp;"_"&amp;J4</f>
         <v>slide-1_1_1</v>
       </c>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="36" t="s">
+      <c r="L4" s="95"/>
+      <c r="M4" s="95"/>
+      <c r="N4" s="95"/>
+      <c r="O4" s="95" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="39">
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="94">
         <v>1</v>
       </c>
-      <c r="E5" s="30" t="s">
+      <c r="E5" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="30" t="s">
+      <c r="F5" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="31">
+      <c r="G5" s="96">
         <v>2</v>
       </c>
-      <c r="H5" s="31"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="31">
+      <c r="H5" s="100"/>
+      <c r="I5" s="95"/>
+      <c r="J5" s="96">
         <v>2</v>
       </c>
-      <c r="K5" s="33" t="str">
+      <c r="K5" s="95" t="str">
         <f>"slide-"&amp;D5&amp;"_"&amp;G5&amp;"_"&amp;Таблица12[[#This Row],['#3]]</f>
         <v>slide-1_2_2</v>
       </c>
-      <c r="L5" s="33"/>
-      <c r="M5" s="34" t="str">
+      <c r="L5" s="95"/>
+      <c r="M5" s="95" t="str">
         <f>K11</f>
         <v>slide-1_4_8</v>
       </c>
-      <c r="N5" s="33"/>
-      <c r="O5" s="36"/>
-    </row>
-    <row r="6" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="41">
+      <c r="N5" s="95"/>
+      <c r="O5" s="95"/>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B6" s="66"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="72">
         <v>1</v>
       </c>
-      <c r="E6" s="42" t="s">
+      <c r="E6" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="42" t="s">
+      <c r="F6" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="43">
+      <c r="G6" s="87">
         <v>3</v>
       </c>
-      <c r="H6" s="44" t="s">
+      <c r="H6" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="I6" s="44" t="s">
+      <c r="I6" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="J6" s="43">
+      <c r="J6" s="87">
         <v>3</v>
       </c>
-      <c r="K6" s="45" t="str">
+      <c r="K6" s="77" t="str">
         <f>"slide-"&amp;D6&amp;"_"&amp;G6&amp;"_"&amp;Таблица12[[#This Row],['#3]]</f>
         <v>slide-1_3_3</v>
       </c>
-      <c r="L6" s="45"/>
-      <c r="M6" s="46" t="str">
+      <c r="L6" s="77"/>
+      <c r="M6" s="77" t="str">
         <f>K21</f>
         <v>slide-2_3_4</v>
       </c>
-      <c r="N6" s="45"/>
-      <c r="O6" s="47"/>
-    </row>
-    <row r="7" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="49">
+      <c r="N6" s="77"/>
+      <c r="O6" s="77"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B7" s="67"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="73">
         <v>1</v>
       </c>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="51">
+      <c r="E7" s="58"/>
+      <c r="F7" s="78"/>
+      <c r="G7" s="88">
         <v>3</v>
       </c>
-      <c r="H7" s="52" t="s">
+      <c r="H7" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="52" t="s">
+      <c r="I7" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="51">
+      <c r="J7" s="88">
         <v>4</v>
       </c>
-      <c r="K7" s="45" t="str">
+      <c r="K7" s="78" t="str">
         <f>"slide-"&amp;D7&amp;"_"&amp;G7&amp;"_"&amp;Таблица12[[#This Row],['#3]]</f>
         <v>slide-1_3_4</v>
       </c>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="54"/>
-      <c r="O7" s="55"/>
-    </row>
-    <row r="8" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="49">
+      <c r="L7" s="78"/>
+      <c r="M7" s="78"/>
+      <c r="N7" s="78"/>
+      <c r="O7" s="78"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B8" s="67"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="73">
         <v>1</v>
       </c>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="51">
+      <c r="E8" s="58"/>
+      <c r="F8" s="78"/>
+      <c r="G8" s="88">
         <v>3</v>
       </c>
-      <c r="H8" s="52" t="s">
+      <c r="H8" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="52" t="s">
+      <c r="I8" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="J8" s="51">
+      <c r="J8" s="88">
         <v>5</v>
       </c>
-      <c r="K8" s="45" t="str">
+      <c r="K8" s="78" t="str">
         <f>"slide-"&amp;D8&amp;"_"&amp;G8&amp;"_"&amp;Таблица12[[#This Row],['#3]]</f>
         <v>slide-1_3_5</v>
       </c>
-      <c r="L8" s="53"/>
-      <c r="M8" s="53"/>
-      <c r="N8" s="54"/>
-      <c r="O8" s="55"/>
+      <c r="L8" s="78"/>
+      <c r="M8" s="78"/>
+      <c r="N8" s="78"/>
+      <c r="O8" s="78"/>
     </row>
     <row r="9" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="56"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="57">
+      <c r="B9" s="68"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="74">
         <v>1</v>
       </c>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="59">
+      <c r="E9" s="61"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="89">
         <v>3</v>
       </c>
-      <c r="H9" s="60" t="s">
+      <c r="H9" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="60" t="s">
+      <c r="I9" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="J9" s="59">
+      <c r="J9" s="89">
         <v>6</v>
       </c>
-      <c r="K9" s="33" t="str">
+      <c r="K9" s="79" t="str">
         <f>"slide-"&amp;D9&amp;"_"&amp;G9&amp;"_"&amp;Таблица12[[#This Row],['#3]]</f>
         <v>slide-1_3_6</v>
       </c>
-      <c r="L9" s="61"/>
-      <c r="M9" s="61"/>
-      <c r="N9" s="62"/>
-      <c r="O9" s="63"/>
-    </row>
-    <row r="10" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="64"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="65">
+      <c r="L9" s="79"/>
+      <c r="M9" s="79"/>
+      <c r="N9" s="79"/>
+      <c r="O9" s="79"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B10" s="66"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="72">
         <v>1</v>
       </c>
-      <c r="E10" s="66" t="s">
+      <c r="E10" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="66" t="s">
+      <c r="F10" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="67">
+      <c r="G10" s="87">
         <v>4</v>
       </c>
-      <c r="H10" s="68" t="s">
+      <c r="H10" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="I10" s="68" t="s">
+      <c r="I10" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="J10" s="67">
+      <c r="J10" s="87">
         <v>7</v>
       </c>
-      <c r="K10" s="69" t="str">
+      <c r="K10" s="77" t="str">
         <f>"slide-"&amp;D10&amp;"_"&amp;G10&amp;"_"&amp;Таблица12[[#This Row],['#3]]</f>
         <v>slide-1_4_7</v>
       </c>
-      <c r="L10" s="69"/>
-      <c r="M10" s="69"/>
-      <c r="N10" s="70"/>
-      <c r="O10" s="71"/>
-    </row>
-    <row r="11" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="48"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="49">
+      <c r="L10" s="77"/>
+      <c r="M10" s="77"/>
+      <c r="N10" s="77"/>
+      <c r="O10" s="77"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B11" s="67"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="73">
         <v>1</v>
       </c>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="51">
+      <c r="E11" s="58"/>
+      <c r="F11" s="78"/>
+      <c r="G11" s="88">
         <v>4</v>
       </c>
-      <c r="H11" s="52" t="s">
+      <c r="H11" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="I11" s="52" t="s">
+      <c r="I11" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="J11" s="51">
+      <c r="J11" s="88">
         <v>8</v>
       </c>
-      <c r="K11" s="45" t="str">
+      <c r="K11" s="78" t="str">
         <f>"slide-"&amp;D11&amp;"_"&amp;G11&amp;"_"&amp;Таблица12[[#This Row],['#3]]</f>
         <v>slide-1_4_8</v>
       </c>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="55"/>
-    </row>
-    <row r="12" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="48"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="49">
+      <c r="L11" s="78"/>
+      <c r="M11" s="78"/>
+      <c r="N11" s="78"/>
+      <c r="O11" s="78"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B12" s="67"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="73">
         <v>1</v>
       </c>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="51">
+      <c r="E12" s="58"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="88">
         <v>4</v>
       </c>
-      <c r="H12" s="52" t="s">
+      <c r="H12" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="I12" s="52" t="s">
+      <c r="I12" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="J12" s="51">
+      <c r="J12" s="88">
         <v>9</v>
       </c>
-      <c r="K12" s="45" t="str">
+      <c r="K12" s="78" t="str">
         <f>"slide-"&amp;D12&amp;"_"&amp;G12&amp;"_"&amp;Таблица12[[#This Row],['#3]]</f>
         <v>slide-1_4_9</v>
       </c>
-      <c r="L12" s="53"/>
-      <c r="M12" s="53"/>
-      <c r="N12" s="54"/>
-      <c r="O12" s="55"/>
+      <c r="L12" s="78"/>
+      <c r="M12" s="78"/>
+      <c r="N12" s="78"/>
+      <c r="O12" s="78"/>
     </row>
     <row r="13" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="72"/>
-      <c r="C13" s="72"/>
-      <c r="D13" s="73">
+      <c r="B13" s="68"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="74">
         <v>1</v>
       </c>
-      <c r="E13" s="74"/>
-      <c r="F13" s="74"/>
-      <c r="G13" s="75">
+      <c r="E13" s="61"/>
+      <c r="F13" s="79"/>
+      <c r="G13" s="89">
         <v>4</v>
       </c>
-      <c r="H13" s="76" t="s">
+      <c r="H13" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="I13" s="76" t="s">
+      <c r="I13" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="J13" s="75">
+      <c r="J13" s="89">
         <v>10</v>
       </c>
-      <c r="K13" s="77" t="str">
+      <c r="K13" s="79" t="str">
         <f>"slide-"&amp;D13&amp;"_"&amp;G13&amp;"_"&amp;Таблица12[[#This Row],['#3]]</f>
         <v>slide-1_4_10</v>
       </c>
-      <c r="L13" s="78"/>
-      <c r="M13" s="78"/>
+      <c r="L13" s="79"/>
+      <c r="M13" s="79"/>
       <c r="N13" s="79"/>
-      <c r="O13" s="80"/>
-    </row>
-    <row r="14" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="41">
+      <c r="O13" s="79"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B14" s="67"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="73">
         <v>1</v>
       </c>
-      <c r="E14" s="42" t="s">
+      <c r="E14" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="42" t="s">
+      <c r="F14" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="43">
+      <c r="G14" s="88">
         <v>5</v>
       </c>
-      <c r="H14" s="42" t="s">
+      <c r="H14" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="I14" s="42" t="s">
+      <c r="I14" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="J14" s="43">
+      <c r="J14" s="88">
         <v>11</v>
       </c>
-      <c r="K14" s="45" t="str">
+      <c r="K14" s="78" t="str">
         <f>"slide-"&amp;D14&amp;"_"&amp;G14&amp;"_"&amp;Таблица12[[#This Row],['#3]]</f>
         <v>slide-1_5_11</v>
       </c>
-      <c r="L14" s="44"/>
-      <c r="M14" s="44"/>
-      <c r="N14" s="81"/>
-      <c r="O14" s="82"/>
-    </row>
-    <row r="15" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="48"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="49">
+      <c r="L14" s="78"/>
+      <c r="M14" s="78"/>
+      <c r="N14" s="78"/>
+      <c r="O14" s="78"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B15" s="67"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="73">
         <v>1</v>
       </c>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="51">
+      <c r="E15" s="58"/>
+      <c r="F15" s="78"/>
+      <c r="G15" s="88">
         <v>5</v>
       </c>
-      <c r="H15" s="52" t="s">
+      <c r="H15" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="I15" s="52" t="s">
+      <c r="I15" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="J15" s="51">
+      <c r="J15" s="88">
         <v>12</v>
       </c>
-      <c r="K15" s="45" t="str">
+      <c r="K15" s="78" t="str">
         <f>"slide-"&amp;D15&amp;"_"&amp;G15&amp;"_"&amp;Таблица12[[#This Row],['#3]]</f>
         <v>slide-1_5_12</v>
       </c>
-      <c r="L15" s="52"/>
-      <c r="M15" s="52"/>
-      <c r="N15" s="54"/>
-      <c r="O15" s="83"/>
-    </row>
-    <row r="16" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="48"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="49">
+      <c r="L15" s="78"/>
+      <c r="M15" s="78"/>
+      <c r="N15" s="78"/>
+      <c r="O15" s="78"/>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B16" s="67"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="73">
         <v>1</v>
       </c>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="51">
+      <c r="E16" s="58"/>
+      <c r="F16" s="78"/>
+      <c r="G16" s="88">
         <v>5</v>
       </c>
-      <c r="H16" s="52" t="s">
+      <c r="H16" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="I16" s="52" t="s">
+      <c r="I16" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="J16" s="51">
+      <c r="J16" s="88">
         <v>13</v>
       </c>
-      <c r="K16" s="45" t="str">
+      <c r="K16" s="78" t="str">
         <f>"slide-"&amp;D16&amp;"_"&amp;G16&amp;"_"&amp;Таблица12[[#This Row],['#3]]</f>
         <v>slide-1_5_13</v>
       </c>
-      <c r="L16" s="52"/>
-      <c r="M16" s="52"/>
-      <c r="N16" s="84"/>
-      <c r="O16" s="83"/>
+      <c r="L16" s="78"/>
+      <c r="M16" s="78"/>
+      <c r="N16" s="78"/>
+      <c r="O16" s="78"/>
     </row>
     <row r="17" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="56"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="85">
+      <c r="B17" s="68"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="74">
         <v>1</v>
       </c>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="86">
+      <c r="E17" s="61"/>
+      <c r="F17" s="79"/>
+      <c r="G17" s="89">
         <v>5</v>
       </c>
-      <c r="H17" s="60" t="s">
+      <c r="H17" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="I17" s="60" t="s">
+      <c r="I17" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="J17" s="59">
+      <c r="J17" s="89">
         <v>14</v>
       </c>
-      <c r="K17" s="33" t="str">
+      <c r="K17" s="79" t="str">
         <f>"slide-"&amp;D17&amp;"_"&amp;G17&amp;"_"&amp;Таблица12[[#This Row],['#3]]</f>
         <v>slide-1_5_14</v>
       </c>
-      <c r="L17" s="60"/>
-      <c r="M17" s="60"/>
-      <c r="N17" s="87"/>
-      <c r="O17" s="88"/>
+      <c r="L17" s="79"/>
+      <c r="M17" s="79"/>
+      <c r="N17" s="79"/>
+      <c r="O17" s="79"/>
     </row>
     <row r="18" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="104" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="37" t="s">
+      <c r="C18" s="104" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="38">
+      <c r="D18" s="105">
         <v>2</v>
       </c>
-      <c r="E18" s="30" t="s">
+      <c r="E18" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="F18" s="30" t="s">
+      <c r="F18" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="G18" s="31">
+      <c r="G18" s="108">
         <v>1</v>
       </c>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="31">
+      <c r="H18" s="109"/>
+      <c r="I18" s="107"/>
+      <c r="J18" s="108">
         <v>1</v>
       </c>
-      <c r="K18" s="33" t="str">
+      <c r="K18" s="107" t="str">
         <f>"slide-"&amp;D18&amp;"_"&amp;G18&amp;"_"&amp;Таблица12[[#This Row],['#3]]</f>
         <v>slide-2_1_1</v>
       </c>
-      <c r="L18" s="32"/>
-      <c r="M18" s="32"/>
-      <c r="N18" s="33"/>
-      <c r="O18" s="89"/>
+      <c r="L18" s="107"/>
+      <c r="M18" s="107"/>
+      <c r="N18" s="107"/>
+      <c r="O18" s="107"/>
     </row>
     <row r="19" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="39">
+      <c r="B19" s="110"/>
+      <c r="C19" s="110"/>
+      <c r="D19" s="111">
         <v>2</v>
       </c>
-      <c r="E19" s="30" t="s">
+      <c r="E19" s="112" t="s">
         <v>45</v>
       </c>
-      <c r="F19" s="30" t="s">
+      <c r="F19" s="113" t="s">
         <v>45</v>
       </c>
-      <c r="G19" s="31">
+      <c r="G19" s="114">
         <v>2</v>
       </c>
-      <c r="H19" s="32"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="31">
+      <c r="H19" s="115"/>
+      <c r="I19" s="113"/>
+      <c r="J19" s="114">
         <v>2</v>
       </c>
-      <c r="K19" s="33" t="str">
+      <c r="K19" s="113" t="str">
         <f>"slide-"&amp;D19&amp;"_"&amp;G19&amp;"_"&amp;Таблица12[[#This Row],['#3]]</f>
         <v>slide-2_2_2</v>
       </c>
-      <c r="L19" s="33"/>
-      <c r="M19" s="33"/>
-      <c r="N19" s="33"/>
-      <c r="O19" s="36"/>
-    </row>
-    <row r="20" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="40"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="41">
+      <c r="L19" s="113"/>
+      <c r="M19" s="113"/>
+      <c r="N19" s="113"/>
+      <c r="O19" s="113"/>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B20" s="116"/>
+      <c r="C20" s="116"/>
+      <c r="D20" s="117">
         <v>2</v>
       </c>
-      <c r="E20" s="44" t="s">
+      <c r="E20" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="F20" s="44" t="s">
+      <c r="F20" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="G20" s="90">
+      <c r="G20" s="120">
         <v>3</v>
       </c>
-      <c r="H20" s="44" t="s">
+      <c r="H20" s="121" t="s">
         <v>2</v>
       </c>
-      <c r="I20" s="44" t="s">
+      <c r="I20" s="119" t="s">
         <v>2</v>
       </c>
-      <c r="J20" s="43">
+      <c r="J20" s="120">
         <v>3</v>
       </c>
-      <c r="K20" s="45" t="str">
+      <c r="K20" s="119" t="str">
         <f>"slide-"&amp;D20&amp;"_"&amp;G20&amp;"_"&amp;Таблица12[[#This Row],['#3]]</f>
         <v>slide-2_3_3</v>
       </c>
-      <c r="L20" s="45"/>
-      <c r="M20" s="45"/>
-      <c r="N20" s="45"/>
-      <c r="O20" s="91"/>
-    </row>
-    <row r="21" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="48"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="49">
+      <c r="L20" s="119"/>
+      <c r="M20" s="119"/>
+      <c r="N20" s="119"/>
+      <c r="O20" s="119"/>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B21" s="110"/>
+      <c r="C21" s="110"/>
+      <c r="D21" s="111">
         <v>2</v>
       </c>
-      <c r="E21" s="52"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="92">
+      <c r="E21" s="112"/>
+      <c r="F21" s="113"/>
+      <c r="G21" s="114">
         <v>3</v>
       </c>
-      <c r="H21" s="52" t="s">
+      <c r="H21" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="I21" s="52" t="s">
+      <c r="I21" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="J21" s="51">
+      <c r="J21" s="114">
         <v>4</v>
       </c>
-      <c r="K21" s="45" t="str">
+      <c r="K21" s="113" t="str">
         <f>"slide-"&amp;D21&amp;"_"&amp;G21&amp;"_"&amp;Таблица12[[#This Row],['#3]]</f>
         <v>slide-2_3_4</v>
       </c>
-      <c r="L21" s="53"/>
-      <c r="M21" s="53"/>
-      <c r="N21" s="53"/>
-      <c r="O21" s="93"/>
-    </row>
-    <row r="22" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="48"/>
-      <c r="C22" s="48"/>
-      <c r="D22" s="49">
+      <c r="L21" s="113"/>
+      <c r="M21" s="113"/>
+      <c r="N21" s="113"/>
+      <c r="O21" s="113"/>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B22" s="110"/>
+      <c r="C22" s="110"/>
+      <c r="D22" s="111">
         <v>2</v>
       </c>
-      <c r="E22" s="52"/>
-      <c r="F22" s="52"/>
-      <c r="G22" s="92">
+      <c r="E22" s="112"/>
+      <c r="F22" s="113"/>
+      <c r="G22" s="114">
         <v>3</v>
       </c>
-      <c r="H22" s="52" t="s">
+      <c r="H22" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="I22" s="52" t="s">
+      <c r="I22" s="113" t="s">
         <v>6</v>
       </c>
-      <c r="J22" s="51">
+      <c r="J22" s="114">
         <v>5</v>
       </c>
-      <c r="K22" s="45" t="str">
+      <c r="K22" s="113" t="str">
         <f>"slide-"&amp;D22&amp;"_"&amp;G22&amp;"_"&amp;Таблица12[[#This Row],['#3]]</f>
         <v>slide-2_3_5</v>
       </c>
-      <c r="L22" s="53"/>
-      <c r="M22" s="53"/>
-      <c r="N22" s="53"/>
-      <c r="O22" s="93"/>
+      <c r="L22" s="113"/>
+      <c r="M22" s="113"/>
+      <c r="N22" s="113"/>
+      <c r="O22" s="113"/>
     </row>
     <row r="23" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="56"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="57">
+      <c r="B23" s="122"/>
+      <c r="C23" s="122"/>
+      <c r="D23" s="123">
         <v>2</v>
       </c>
-      <c r="E23" s="60"/>
-      <c r="F23" s="60"/>
-      <c r="G23" s="94">
+      <c r="E23" s="124"/>
+      <c r="F23" s="125"/>
+      <c r="G23" s="126">
         <v>3</v>
       </c>
-      <c r="H23" s="60" t="s">
+      <c r="H23" s="127" t="s">
         <v>7</v>
       </c>
-      <c r="I23" s="60" t="s">
+      <c r="I23" s="125" t="s">
         <v>7</v>
       </c>
-      <c r="J23" s="59">
+      <c r="J23" s="126">
         <v>6</v>
       </c>
-      <c r="K23" s="33" t="str">
+      <c r="K23" s="125" t="str">
         <f>"slide-"&amp;D23&amp;"_"&amp;G23&amp;"_"&amp;Таблица12[[#This Row],['#3]]</f>
         <v>slide-2_3_6</v>
       </c>
-      <c r="L23" s="61"/>
-      <c r="M23" s="61"/>
-      <c r="N23" s="61"/>
-      <c r="O23" s="95"/>
-    </row>
-    <row r="24" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="40"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="41">
+      <c r="L23" s="125"/>
+      <c r="M23" s="125"/>
+      <c r="N23" s="125"/>
+      <c r="O23" s="125"/>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B24" s="116"/>
+      <c r="C24" s="116"/>
+      <c r="D24" s="117">
         <v>2</v>
       </c>
-      <c r="E24" s="44" t="s">
+      <c r="E24" s="118" t="s">
         <v>10</v>
       </c>
-      <c r="F24" s="44" t="s">
+      <c r="F24" s="119" t="s">
         <v>10</v>
       </c>
-      <c r="G24" s="90">
+      <c r="G24" s="120">
         <v>4</v>
       </c>
-      <c r="H24" s="44" t="s">
+      <c r="H24" s="121" t="s">
         <v>2</v>
       </c>
-      <c r="I24" s="44" t="s">
+      <c r="I24" s="119" t="s">
         <v>2</v>
       </c>
-      <c r="J24" s="43">
+      <c r="J24" s="120">
         <v>7</v>
       </c>
-      <c r="K24" s="45" t="str">
+      <c r="K24" s="119" t="str">
         <f>"slide-"&amp;D24&amp;"_"&amp;G24&amp;"_"&amp;Таблица12[[#This Row],['#3]]</f>
         <v>slide-2_4_7</v>
       </c>
-      <c r="L24" s="45"/>
-      <c r="M24" s="45"/>
-      <c r="N24" s="45"/>
-      <c r="O24" s="91"/>
-    </row>
-    <row r="25" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="48"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="49">
+      <c r="L24" s="119"/>
+      <c r="M24" s="119"/>
+      <c r="N24" s="119"/>
+      <c r="O24" s="119"/>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B25" s="110"/>
+      <c r="C25" s="110"/>
+      <c r="D25" s="111">
         <v>2</v>
       </c>
-      <c r="E25" s="52"/>
-      <c r="F25" s="52"/>
-      <c r="G25" s="92">
+      <c r="E25" s="112"/>
+      <c r="F25" s="113"/>
+      <c r="G25" s="114">
         <v>4</v>
       </c>
-      <c r="H25" s="52" t="s">
+      <c r="H25" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="I25" s="52" t="s">
+      <c r="I25" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="J25" s="51">
+      <c r="J25" s="114">
         <v>8</v>
       </c>
-      <c r="K25" s="45" t="str">
+      <c r="K25" s="113" t="str">
         <f>"slide-"&amp;D25&amp;"_"&amp;G25&amp;"_"&amp;Таблица12[[#This Row],['#3]]</f>
         <v>slide-2_4_8</v>
       </c>
-      <c r="L25" s="53"/>
-      <c r="M25" s="53"/>
-      <c r="N25" s="53"/>
-      <c r="O25" s="93"/>
-    </row>
-    <row r="26" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="48"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="49">
+      <c r="L25" s="113"/>
+      <c r="M25" s="113"/>
+      <c r="N25" s="113"/>
+      <c r="O25" s="113"/>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B26" s="110"/>
+      <c r="C26" s="110"/>
+      <c r="D26" s="111">
         <v>2</v>
       </c>
-      <c r="E26" s="52"/>
-      <c r="F26" s="52"/>
-      <c r="G26" s="92">
+      <c r="E26" s="112"/>
+      <c r="F26" s="113"/>
+      <c r="G26" s="114">
         <v>4</v>
       </c>
-      <c r="H26" s="52" t="s">
+      <c r="H26" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="I26" s="52" t="s">
+      <c r="I26" s="113" t="s">
         <v>6</v>
       </c>
-      <c r="J26" s="51">
+      <c r="J26" s="114">
         <v>9</v>
       </c>
-      <c r="K26" s="45" t="str">
+      <c r="K26" s="113" t="str">
         <f>"slide-"&amp;D26&amp;"_"&amp;G26&amp;"_"&amp;Таблица12[[#This Row],['#3]]</f>
         <v>slide-2_4_9</v>
       </c>
-      <c r="L26" s="53"/>
-      <c r="M26" s="53"/>
-      <c r="N26" s="53"/>
-      <c r="O26" s="93"/>
+      <c r="L26" s="113"/>
+      <c r="M26" s="113"/>
+      <c r="N26" s="113"/>
+      <c r="O26" s="113"/>
     </row>
     <row r="27" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="56"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="57">
+      <c r="B27" s="122"/>
+      <c r="C27" s="122"/>
+      <c r="D27" s="123">
         <v>2</v>
       </c>
-      <c r="E27" s="60"/>
-      <c r="F27" s="60"/>
-      <c r="G27" s="94">
+      <c r="E27" s="124"/>
+      <c r="F27" s="125"/>
+      <c r="G27" s="126">
         <v>4</v>
       </c>
-      <c r="H27" s="60" t="s">
+      <c r="H27" s="127" t="s">
         <v>7</v>
       </c>
-      <c r="I27" s="60" t="s">
+      <c r="I27" s="125" t="s">
         <v>7</v>
       </c>
-      <c r="J27" s="59">
+      <c r="J27" s="126">
         <v>10</v>
       </c>
-      <c r="K27" s="33" t="str">
+      <c r="K27" s="125" t="str">
         <f>"slide-"&amp;D27&amp;"_"&amp;G27&amp;"_"&amp;Таблица12[[#This Row],['#3]]</f>
         <v>slide-2_4_10</v>
       </c>
-      <c r="L27" s="61"/>
-      <c r="M27" s="61"/>
-      <c r="N27" s="61"/>
-      <c r="O27" s="95"/>
-    </row>
-    <row r="28" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="40"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="41">
+      <c r="L27" s="125"/>
+      <c r="M27" s="125"/>
+      <c r="N27" s="125"/>
+      <c r="O27" s="125"/>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B28" s="110"/>
+      <c r="C28" s="110"/>
+      <c r="D28" s="111">
         <v>2</v>
       </c>
-      <c r="E28" s="44" t="s">
+      <c r="E28" s="112" t="s">
         <v>11</v>
       </c>
-      <c r="F28" s="44" t="s">
+      <c r="F28" s="113" t="s">
         <v>11</v>
       </c>
-      <c r="G28" s="90">
+      <c r="G28" s="114">
         <v>5</v>
       </c>
-      <c r="H28" s="44" t="s">
+      <c r="H28" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="I28" s="44" t="s">
+      <c r="I28" s="113" t="s">
         <v>2</v>
       </c>
-      <c r="J28" s="43">
+      <c r="J28" s="114">
         <v>11</v>
       </c>
-      <c r="K28" s="45" t="str">
+      <c r="K28" s="113" t="str">
         <f>"slide-"&amp;D28&amp;"_"&amp;G28&amp;"_"&amp;Таблица12[[#This Row],['#3]]</f>
         <v>slide-2_5_11</v>
       </c>
-      <c r="L28" s="45"/>
-      <c r="M28" s="45"/>
-      <c r="N28" s="45"/>
-      <c r="O28" s="91"/>
-    </row>
-    <row r="29" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="48"/>
-      <c r="C29" s="48"/>
-      <c r="D29" s="49">
+      <c r="L28" s="113"/>
+      <c r="M28" s="113"/>
+      <c r="N28" s="113"/>
+      <c r="O28" s="113"/>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B29" s="110"/>
+      <c r="C29" s="110"/>
+      <c r="D29" s="111">
         <v>2</v>
       </c>
-      <c r="E29" s="52"/>
-      <c r="F29" s="52"/>
-      <c r="G29" s="92">
+      <c r="E29" s="112"/>
+      <c r="F29" s="113"/>
+      <c r="G29" s="114">
         <v>5</v>
       </c>
-      <c r="H29" s="52" t="s">
+      <c r="H29" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="I29" s="52" t="s">
+      <c r="I29" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="J29" s="51">
+      <c r="J29" s="114">
         <v>12</v>
       </c>
-      <c r="K29" s="45" t="str">
+      <c r="K29" s="113" t="str">
         <f>"slide-"&amp;D29&amp;"_"&amp;G29&amp;"_"&amp;Таблица12[[#This Row],['#3]]</f>
         <v>slide-2_5_12</v>
       </c>
-      <c r="L29" s="53"/>
-      <c r="M29" s="53"/>
-      <c r="N29" s="53"/>
-      <c r="O29" s="93"/>
-    </row>
-    <row r="30" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="48"/>
-      <c r="C30" s="48"/>
-      <c r="D30" s="49">
+      <c r="L29" s="113"/>
+      <c r="M29" s="113"/>
+      <c r="N29" s="113"/>
+      <c r="O29" s="113"/>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B30" s="110"/>
+      <c r="C30" s="110"/>
+      <c r="D30" s="111">
         <v>2</v>
       </c>
-      <c r="E30" s="52"/>
-      <c r="F30" s="52"/>
-      <c r="G30" s="92">
+      <c r="E30" s="112"/>
+      <c r="F30" s="113"/>
+      <c r="G30" s="114">
         <v>5</v>
       </c>
-      <c r="H30" s="52" t="s">
+      <c r="H30" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="I30" s="52" t="s">
+      <c r="I30" s="113" t="s">
         <v>6</v>
       </c>
-      <c r="J30" s="51">
+      <c r="J30" s="114">
         <v>13</v>
       </c>
-      <c r="K30" s="45" t="str">
+      <c r="K30" s="113" t="str">
         <f>"slide-"&amp;D30&amp;"_"&amp;G30&amp;"_"&amp;Таблица12[[#This Row],['#3]]</f>
         <v>slide-2_5_13</v>
       </c>
-      <c r="L30" s="53"/>
-      <c r="M30" s="53"/>
-      <c r="N30" s="53"/>
-      <c r="O30" s="93"/>
+      <c r="L30" s="113"/>
+      <c r="M30" s="113"/>
+      <c r="N30" s="113"/>
+      <c r="O30" s="113"/>
     </row>
     <row r="31" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="56"/>
-      <c r="C31" s="56"/>
-      <c r="D31" s="57">
+      <c r="B31" s="110"/>
+      <c r="C31" s="110"/>
+      <c r="D31" s="111">
         <v>2</v>
       </c>
-      <c r="E31" s="60"/>
-      <c r="F31" s="60"/>
-      <c r="G31" s="94">
+      <c r="E31" s="112"/>
+      <c r="F31" s="113"/>
+      <c r="G31" s="114">
         <v>5</v>
       </c>
-      <c r="H31" s="60" t="s">
+      <c r="H31" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="I31" s="60" t="s">
+      <c r="I31" s="113" t="s">
         <v>7</v>
       </c>
-      <c r="J31" s="59">
+      <c r="J31" s="114">
         <v>14</v>
       </c>
-      <c r="K31" s="33" t="str">
+      <c r="K31" s="113" t="str">
         <f>"slide-"&amp;D31&amp;"_"&amp;G31&amp;"_"&amp;Таблица12[[#This Row],['#3]]</f>
         <v>slide-2_5_14</v>
       </c>
-      <c r="L31" s="61"/>
-      <c r="M31" s="61"/>
-      <c r="N31" s="61"/>
-      <c r="O31" s="95"/>
-    </row>
-    <row r="32" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="64"/>
-      <c r="C32" s="64"/>
-      <c r="D32" s="65">
+      <c r="L31" s="113"/>
+      <c r="M31" s="113"/>
+      <c r="N31" s="113"/>
+      <c r="O31" s="113"/>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B32" s="116"/>
+      <c r="C32" s="116"/>
+      <c r="D32" s="117">
         <v>2</v>
       </c>
-      <c r="E32" s="68" t="s">
+      <c r="E32" s="118" t="s">
         <v>12</v>
       </c>
-      <c r="F32" s="68" t="s">
+      <c r="F32" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="G32" s="96">
+      <c r="G32" s="120">
         <v>6</v>
       </c>
-      <c r="H32" s="68" t="s">
+      <c r="H32" s="121" t="s">
         <v>2</v>
       </c>
-      <c r="I32" s="68" t="s">
+      <c r="I32" s="119" t="s">
         <v>2</v>
       </c>
-      <c r="J32" s="67">
+      <c r="J32" s="120">
         <v>15</v>
       </c>
-      <c r="K32" s="69" t="str">
+      <c r="K32" s="119" t="str">
         <f>"slide-"&amp;D32&amp;"_"&amp;G32&amp;"_"&amp;Таблица12[[#This Row],['#3]]</f>
         <v>slide-2_6_15</v>
       </c>
-      <c r="L32" s="69"/>
-      <c r="M32" s="69"/>
-      <c r="N32" s="69"/>
-      <c r="O32" s="97"/>
-    </row>
-    <row r="33" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="48"/>
-      <c r="C33" s="48"/>
-      <c r="D33" s="49">
+      <c r="L32" s="119"/>
+      <c r="M32" s="119"/>
+      <c r="N32" s="119"/>
+      <c r="O32" s="119"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B33" s="110"/>
+      <c r="C33" s="110"/>
+      <c r="D33" s="111">
         <v>2</v>
       </c>
-      <c r="E33" s="52"/>
-      <c r="F33" s="52"/>
-      <c r="G33" s="92">
+      <c r="E33" s="112"/>
+      <c r="F33" s="113"/>
+      <c r="G33" s="114">
         <v>6</v>
       </c>
-      <c r="H33" s="52" t="s">
+      <c r="H33" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="I33" s="52" t="s">
+      <c r="I33" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="J33" s="51">
+      <c r="J33" s="114">
         <v>16</v>
       </c>
-      <c r="K33" s="45" t="str">
+      <c r="K33" s="113" t="str">
         <f>"slide-"&amp;D33&amp;"_"&amp;G33&amp;"_"&amp;Таблица12[[#This Row],['#3]]</f>
         <v>slide-2_6_16</v>
       </c>
-      <c r="L33" s="53"/>
-      <c r="M33" s="53"/>
-      <c r="N33" s="53"/>
-      <c r="O33" s="93"/>
-    </row>
-    <row r="34" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="48"/>
-      <c r="C34" s="48"/>
-      <c r="D34" s="49">
+      <c r="L33" s="113"/>
+      <c r="M33" s="113"/>
+      <c r="N33" s="113"/>
+      <c r="O33" s="113"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B34" s="110"/>
+      <c r="C34" s="110"/>
+      <c r="D34" s="111">
         <v>2</v>
       </c>
-      <c r="E34" s="52"/>
-      <c r="F34" s="52"/>
-      <c r="G34" s="92">
+      <c r="E34" s="112"/>
+      <c r="F34" s="113"/>
+      <c r="G34" s="114">
         <v>6</v>
       </c>
-      <c r="H34" s="52" t="s">
+      <c r="H34" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="I34" s="52" t="s">
+      <c r="I34" s="113" t="s">
         <v>6</v>
       </c>
-      <c r="J34" s="51">
+      <c r="J34" s="114">
         <v>17</v>
       </c>
-      <c r="K34" s="45" t="str">
+      <c r="K34" s="113" t="str">
         <f>"slide-"&amp;D34&amp;"_"&amp;G34&amp;"_"&amp;Таблица12[[#This Row],['#3]]</f>
         <v>slide-2_6_17</v>
       </c>
-      <c r="L34" s="53"/>
-      <c r="M34" s="53"/>
-      <c r="N34" s="53"/>
-      <c r="O34" s="93"/>
+      <c r="L34" s="113"/>
+      <c r="M34" s="113"/>
+      <c r="N34" s="113"/>
+      <c r="O34" s="113"/>
     </row>
     <row r="35" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="56"/>
-      <c r="C35" s="56"/>
-      <c r="D35" s="85">
+      <c r="B35" s="122"/>
+      <c r="C35" s="122"/>
+      <c r="D35" s="123">
         <v>2</v>
       </c>
-      <c r="E35" s="60"/>
-      <c r="F35" s="60"/>
-      <c r="G35" s="94">
+      <c r="E35" s="124"/>
+      <c r="F35" s="125"/>
+      <c r="G35" s="126">
         <v>6</v>
       </c>
-      <c r="H35" s="60" t="s">
+      <c r="H35" s="127" t="s">
         <v>7</v>
       </c>
-      <c r="I35" s="60" t="s">
+      <c r="I35" s="125" t="s">
         <v>7</v>
       </c>
-      <c r="J35" s="59">
+      <c r="J35" s="126">
         <v>18</v>
       </c>
-      <c r="K35" s="45" t="str">
+      <c r="K35" s="125" t="str">
         <f>"slide-"&amp;D35&amp;"_"&amp;G35&amp;"_"&amp;Таблица12[[#This Row],['#3]]</f>
         <v>slide-2_6_18</v>
       </c>
-      <c r="L35" s="61"/>
-      <c r="M35" s="61"/>
-      <c r="N35" s="61"/>
-      <c r="O35" s="95"/>
+      <c r="L35" s="125"/>
+      <c r="M35" s="125"/>
+      <c r="N35" s="125"/>
+      <c r="O35" s="125"/>
     </row>
     <row r="36" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="64" t="s">
+      <c r="B36" s="69"/>
+      <c r="C36" s="69"/>
+      <c r="D36" s="75"/>
+      <c r="E36" s="63"/>
+      <c r="F36" s="84"/>
+      <c r="G36" s="90" t="s">
+        <v>32</v>
+      </c>
+      <c r="H36" s="101" t="s">
+        <v>14</v>
+      </c>
+      <c r="I36" s="80" t="s">
+        <v>14</v>
+      </c>
+      <c r="J36" s="90">
+        <v>1</v>
+      </c>
+      <c r="K36" s="84" t="str">
+        <f>"slide-"&amp;G36&amp;"_"&amp;Таблица12[[#This Row],['#3]]</f>
+        <v>slide-faq_1</v>
+      </c>
+      <c r="L36" s="84"/>
+      <c r="M36" s="84"/>
+      <c r="N36" s="84"/>
+      <c r="O36" s="84"/>
+    </row>
+    <row r="37" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="70"/>
+      <c r="C37" s="70"/>
+      <c r="D37" s="76"/>
+      <c r="E37" s="103"/>
+      <c r="F37" s="102"/>
+      <c r="G37" s="90" t="s">
+        <v>32</v>
+      </c>
+      <c r="H37" s="97" t="s">
+        <v>15</v>
+      </c>
+      <c r="I37" s="81" t="s">
+        <v>15</v>
+      </c>
+      <c r="J37" s="92">
+        <v>2</v>
+      </c>
+      <c r="K37" s="84" t="str">
+        <f>"slide-"&amp;G37&amp;"_"&amp;Таблица12[[#This Row],['#3]]</f>
+        <v>slide-faq_2</v>
+      </c>
+      <c r="L37" s="83"/>
+      <c r="M37" s="83"/>
+      <c r="N37" s="83"/>
+      <c r="O37" s="83"/>
+    </row>
+    <row r="38" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="70"/>
+      <c r="C38" s="70"/>
+      <c r="D38" s="76"/>
+      <c r="E38" s="103"/>
+      <c r="F38" s="102"/>
+      <c r="G38" s="90" t="s">
+        <v>32</v>
+      </c>
+      <c r="H38" s="98" t="s">
+        <v>16</v>
+      </c>
+      <c r="I38" s="82" t="s">
+        <v>16</v>
+      </c>
+      <c r="J38" s="92">
+        <v>3</v>
+      </c>
+      <c r="K38" s="84" t="str">
+        <f>"slide-"&amp;G38&amp;"_"&amp;Таблица12[[#This Row],['#3]]</f>
+        <v>slide-faq_3</v>
+      </c>
+      <c r="L38" s="83"/>
+      <c r="M38" s="83"/>
+      <c r="N38" s="83"/>
+      <c r="O38" s="83"/>
+    </row>
+    <row r="39" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="70"/>
+      <c r="C39" s="70"/>
+      <c r="D39" s="76"/>
+      <c r="E39" s="103"/>
+      <c r="F39" s="102"/>
+      <c r="G39" s="90" t="s">
+        <v>32</v>
+      </c>
+      <c r="H39" s="97" t="s">
+        <v>17</v>
+      </c>
+      <c r="I39" s="81" t="s">
+        <v>17</v>
+      </c>
+      <c r="J39" s="92">
+        <v>4</v>
+      </c>
+      <c r="K39" s="84" t="str">
+        <f>"slide-"&amp;G39&amp;"_"&amp;Таблица12[[#This Row],['#3]]</f>
+        <v>slide-faq_4</v>
+      </c>
+      <c r="L39" s="83"/>
+      <c r="M39" s="83"/>
+      <c r="N39" s="83"/>
+      <c r="O39" s="83"/>
+    </row>
+    <row r="40" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="70"/>
+      <c r="C40" s="70"/>
+      <c r="D40" s="76"/>
+      <c r="E40" s="103"/>
+      <c r="F40" s="102"/>
+      <c r="G40" s="90" t="s">
+        <v>32</v>
+      </c>
+      <c r="H40" s="97" t="s">
+        <v>18</v>
+      </c>
+      <c r="I40" s="81" t="s">
+        <v>18</v>
+      </c>
+      <c r="J40" s="92">
+        <v>5</v>
+      </c>
+      <c r="K40" s="84" t="str">
+        <f>"slide-"&amp;G40&amp;"_"&amp;Таблица12[[#This Row],['#3]]</f>
+        <v>slide-faq_5</v>
+      </c>
+      <c r="L40" s="83"/>
+      <c r="M40" s="83"/>
+      <c r="N40" s="83"/>
+      <c r="O40" s="83"/>
+    </row>
+    <row r="41" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="70"/>
+      <c r="C41" s="70"/>
+      <c r="D41" s="76"/>
+      <c r="E41" s="103"/>
+      <c r="F41" s="102"/>
+      <c r="G41" s="90" t="s">
+        <v>32</v>
+      </c>
+      <c r="H41" s="97" t="s">
+        <v>19</v>
+      </c>
+      <c r="I41" s="81" t="s">
+        <v>19</v>
+      </c>
+      <c r="J41" s="92">
+        <v>6</v>
+      </c>
+      <c r="K41" s="84" t="str">
+        <f>"slide-"&amp;G41&amp;"_"&amp;Таблица12[[#This Row],['#3]]</f>
+        <v>slide-faq_6</v>
+      </c>
+      <c r="L41" s="83"/>
+      <c r="M41" s="83"/>
+      <c r="N41" s="83"/>
+      <c r="O41" s="83"/>
+    </row>
+    <row r="42" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="70"/>
+      <c r="C42" s="70"/>
+      <c r="D42" s="76"/>
+      <c r="E42" s="103"/>
+      <c r="F42" s="102"/>
+      <c r="G42" s="90" t="s">
+        <v>32</v>
+      </c>
+      <c r="H42" s="97" t="s">
+        <v>20</v>
+      </c>
+      <c r="I42" s="81" t="s">
+        <v>20</v>
+      </c>
+      <c r="J42" s="92">
+        <v>7</v>
+      </c>
+      <c r="K42" s="84" t="str">
+        <f>"slide-"&amp;G42&amp;"_"&amp;Таблица12[[#This Row],['#3]]</f>
+        <v>slide-faq_7</v>
+      </c>
+      <c r="L42" s="83"/>
+      <c r="M42" s="83"/>
+      <c r="N42" s="83"/>
+      <c r="O42" s="83"/>
+    </row>
+    <row r="43" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="70"/>
+      <c r="C43" s="70"/>
+      <c r="D43" s="76"/>
+      <c r="E43" s="103"/>
+      <c r="F43" s="102"/>
+      <c r="G43" s="90" t="s">
+        <v>32</v>
+      </c>
+      <c r="H43" s="97" t="s">
+        <v>21</v>
+      </c>
+      <c r="I43" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="J43" s="92">
+        <v>8</v>
+      </c>
+      <c r="K43" s="84" t="str">
+        <f>"slide-"&amp;G43&amp;"_"&amp;Таблица12[[#This Row],['#3]]</f>
+        <v>slide-faq_8</v>
+      </c>
+      <c r="L43" s="83"/>
+      <c r="M43" s="83"/>
+      <c r="N43" s="83"/>
+      <c r="O43" s="83"/>
+    </row>
+    <row r="44" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="70"/>
+      <c r="C44" s="70"/>
+      <c r="D44" s="76"/>
+      <c r="E44" s="103"/>
+      <c r="F44" s="102"/>
+      <c r="G44" s="90" t="s">
+        <v>32</v>
+      </c>
+      <c r="H44" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="I44" s="81" t="s">
+        <v>22</v>
+      </c>
+      <c r="J44" s="92">
+        <v>9</v>
+      </c>
+      <c r="K44" s="84" t="str">
+        <f>"slide-"&amp;G44&amp;"_"&amp;Таблица12[[#This Row],['#3]]</f>
+        <v>slide-faq_9</v>
+      </c>
+      <c r="L44" s="83"/>
+      <c r="M44" s="83"/>
+      <c r="N44" s="83"/>
+      <c r="O44" s="83"/>
+    </row>
+    <row r="45" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="70"/>
+      <c r="C45" s="70"/>
+      <c r="D45" s="76"/>
+      <c r="E45" s="103"/>
+      <c r="F45" s="102"/>
+      <c r="G45" s="90" t="s">
+        <v>32</v>
+      </c>
+      <c r="H45" s="97" t="s">
+        <v>23</v>
+      </c>
+      <c r="I45" s="81" t="s">
+        <v>23</v>
+      </c>
+      <c r="J45" s="92">
+        <v>10</v>
+      </c>
+      <c r="K45" s="84" t="str">
+        <f>"slide-"&amp;G45&amp;"_"&amp;Таблица12[[#This Row],['#3]]</f>
+        <v>slide-faq_10</v>
+      </c>
+      <c r="L45" s="83"/>
+      <c r="M45" s="83"/>
+      <c r="N45" s="83"/>
+      <c r="O45" s="83"/>
+    </row>
+    <row r="46" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="70"/>
+      <c r="C46" s="70"/>
+      <c r="D46" s="76"/>
+      <c r="E46" s="103"/>
+      <c r="F46" s="102"/>
+      <c r="G46" s="90" t="s">
+        <v>32</v>
+      </c>
+      <c r="H46" s="97" t="s">
+        <v>24</v>
+      </c>
+      <c r="I46" s="81" t="s">
+        <v>24</v>
+      </c>
+      <c r="J46" s="92">
+        <v>11</v>
+      </c>
+      <c r="K46" s="84" t="str">
+        <f>"slide-"&amp;G46&amp;"_"&amp;Таблица12[[#This Row],['#3]]</f>
+        <v>slide-faq_11</v>
+      </c>
+      <c r="L46" s="83"/>
+      <c r="M46" s="83"/>
+      <c r="N46" s="83"/>
+      <c r="O46" s="83"/>
+    </row>
+    <row r="47" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="70"/>
+      <c r="C47" s="70"/>
+      <c r="D47" s="76"/>
+      <c r="E47" s="103"/>
+      <c r="F47" s="102"/>
+      <c r="G47" s="90" t="s">
+        <v>32</v>
+      </c>
+      <c r="H47" s="97" t="s">
+        <v>25</v>
+      </c>
+      <c r="I47" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="J47" s="92">
+        <v>12</v>
+      </c>
+      <c r="K47" s="84" t="str">
+        <f>"slide-"&amp;G47&amp;"_"&amp;Таблица12[[#This Row],['#3]]</f>
+        <v>slide-faq_12</v>
+      </c>
+      <c r="L47" s="83"/>
+      <c r="M47" s="83"/>
+      <c r="N47" s="83"/>
+      <c r="O47" s="83"/>
+    </row>
+    <row r="48" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="70"/>
+      <c r="C48" s="70"/>
+      <c r="D48" s="76"/>
+      <c r="E48" s="103"/>
+      <c r="F48" s="102"/>
+      <c r="G48" s="90" t="s">
+        <v>32</v>
+      </c>
+      <c r="H48" s="98" t="s">
+        <v>26</v>
+      </c>
+      <c r="I48" s="82" t="s">
+        <v>26</v>
+      </c>
+      <c r="J48" s="92">
         <v>13</v>
       </c>
-      <c r="C36" s="64" t="s">
-        <v>13</v>
-      </c>
-      <c r="D36" s="98" t="s">
+      <c r="K48" s="84" t="str">
+        <f>"slide-"&amp;G48&amp;"_"&amp;Таблица12[[#This Row],['#3]]</f>
+        <v>slide-faq_13</v>
+      </c>
+      <c r="L48" s="83"/>
+      <c r="M48" s="83"/>
+      <c r="N48" s="83"/>
+      <c r="O48" s="83"/>
+    </row>
+    <row r="49" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="70"/>
+      <c r="C49" s="70"/>
+      <c r="D49" s="76"/>
+      <c r="E49" s="103"/>
+      <c r="F49" s="102"/>
+      <c r="G49" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="E36" s="66" t="s">
+      <c r="H49" s="98" t="s">
+        <v>27</v>
+      </c>
+      <c r="I49" s="82" t="s">
+        <v>27</v>
+      </c>
+      <c r="J49" s="92">
         <v>14</v>
       </c>
-      <c r="F36" s="66" t="s">
-        <v>14</v>
-      </c>
-      <c r="G36" s="67">
-        <v>1</v>
-      </c>
-      <c r="H36" s="67"/>
-      <c r="I36" s="68"/>
-      <c r="J36" s="99">
-        <v>1</v>
-      </c>
-      <c r="K36" s="45" t="str">
-        <f>"slide-"&amp;D36&amp;"_"&amp;G36&amp;"_"&amp;Таблица12[[#This Row],['#3]]</f>
-        <v>slide-faq_1_1</v>
-      </c>
-      <c r="L36" s="69"/>
-      <c r="M36" s="69"/>
-      <c r="N36" s="69"/>
-      <c r="O36" s="100"/>
-    </row>
-    <row r="37" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="48"/>
-      <c r="C37" s="48"/>
-      <c r="D37" s="49" t="s">
+      <c r="K49" s="84" t="str">
+        <f>"slide-"&amp;G49&amp;"_"&amp;Таблица12[[#This Row],['#3]]</f>
+        <v>slide-faq_14</v>
+      </c>
+      <c r="L49" s="83"/>
+      <c r="M49" s="83"/>
+      <c r="N49" s="83"/>
+      <c r="O49" s="83"/>
+    </row>
+    <row r="50" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="70"/>
+      <c r="C50" s="70"/>
+      <c r="D50" s="76"/>
+      <c r="E50" s="103"/>
+      <c r="F50" s="102"/>
+      <c r="G50" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="E37" s="52" t="s">
+      <c r="H50" s="97" t="s">
+        <v>28</v>
+      </c>
+      <c r="I50" s="81" t="s">
+        <v>28</v>
+      </c>
+      <c r="J50" s="92">
         <v>15</v>
       </c>
-      <c r="F37" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="G37" s="92">
-        <v>2</v>
-      </c>
-      <c r="H37" s="92"/>
-      <c r="I37" s="52"/>
-      <c r="J37" s="51">
-        <v>2</v>
-      </c>
-      <c r="K37" s="45" t="str">
-        <f>"slide-"&amp;D37&amp;"_"&amp;G37&amp;"_"&amp;Таблица12[[#This Row],['#3]]</f>
-        <v>slide-faq_2_2</v>
-      </c>
-      <c r="L37" s="53"/>
-      <c r="M37" s="53"/>
-      <c r="N37" s="53"/>
-      <c r="O37" s="101"/>
-    </row>
-    <row r="38" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="48"/>
-      <c r="C38" s="48"/>
-      <c r="D38" s="49" t="s">
+      <c r="K50" s="84" t="str">
+        <f>"slide-"&amp;G50&amp;"_"&amp;Таблица12[[#This Row],['#3]]</f>
+        <v>slide-faq_15</v>
+      </c>
+      <c r="L50" s="83"/>
+      <c r="M50" s="83"/>
+      <c r="N50" s="83"/>
+      <c r="O50" s="83"/>
+    </row>
+    <row r="51" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B51" s="70"/>
+      <c r="C51" s="70"/>
+      <c r="D51" s="76"/>
+      <c r="E51" s="103"/>
+      <c r="F51" s="102"/>
+      <c r="G51" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="E38" s="50" t="s">
+      <c r="H51" s="64" t="s">
+        <v>29</v>
+      </c>
+      <c r="I51" s="83" t="s">
+        <v>29</v>
+      </c>
+      <c r="J51" s="92">
         <v>16</v>
       </c>
-      <c r="F38" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="G38" s="92">
-        <v>3</v>
-      </c>
-      <c r="H38" s="92"/>
-      <c r="I38" s="52"/>
-      <c r="J38" s="51">
-        <v>3</v>
-      </c>
-      <c r="K38" s="45" t="str">
-        <f>"slide-"&amp;D38&amp;"_"&amp;G38&amp;"_"&amp;Таблица12[[#This Row],['#3]]</f>
-        <v>slide-faq_3_3</v>
-      </c>
-      <c r="L38" s="53"/>
-      <c r="M38" s="53"/>
-      <c r="N38" s="53"/>
-      <c r="O38" s="101"/>
-    </row>
-    <row r="39" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="48"/>
-      <c r="C39" s="48"/>
-      <c r="D39" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="E39" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="F39" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="G39" s="92">
-        <v>2</v>
-      </c>
-      <c r="H39" s="92"/>
-      <c r="I39" s="52"/>
-      <c r="J39" s="51">
-        <v>4</v>
-      </c>
-      <c r="K39" s="45" t="str">
-        <f>"slide-"&amp;D39&amp;"_"&amp;G39&amp;"_"&amp;Таблица12[[#This Row],['#3]]</f>
-        <v>slide-faq_2_4</v>
-      </c>
-      <c r="L39" s="53"/>
-      <c r="M39" s="53"/>
-      <c r="N39" s="53"/>
-      <c r="O39" s="101"/>
-    </row>
-    <row r="40" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="48"/>
-      <c r="C40" s="48"/>
-      <c r="D40" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="E40" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="F40" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="G40" s="92">
-        <v>3</v>
-      </c>
-      <c r="H40" s="92"/>
-      <c r="I40" s="52"/>
-      <c r="J40" s="51">
-        <v>5</v>
-      </c>
-      <c r="K40" s="45" t="str">
-        <f>"slide-"&amp;D40&amp;"_"&amp;G40&amp;"_"&amp;Таблица12[[#This Row],['#3]]</f>
-        <v>slide-faq_3_5</v>
-      </c>
-      <c r="L40" s="53"/>
-      <c r="M40" s="53"/>
-      <c r="N40" s="53"/>
-      <c r="O40" s="101"/>
-    </row>
-    <row r="41" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="48"/>
-      <c r="C41" s="48"/>
-      <c r="D41" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="E41" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="F41" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="G41" s="92">
-        <v>2</v>
-      </c>
-      <c r="H41" s="92"/>
-      <c r="I41" s="52"/>
-      <c r="J41" s="51">
-        <v>6</v>
-      </c>
-      <c r="K41" s="45" t="str">
-        <f>"slide-"&amp;D41&amp;"_"&amp;G41&amp;"_"&amp;Таблица12[[#This Row],['#3]]</f>
-        <v>slide-faq_2_6</v>
-      </c>
-      <c r="L41" s="53"/>
-      <c r="M41" s="53"/>
-      <c r="N41" s="53"/>
-      <c r="O41" s="101"/>
-    </row>
-    <row r="42" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="48"/>
-      <c r="C42" s="48"/>
-      <c r="D42" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="E42" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="F42" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="G42" s="92">
-        <v>3</v>
-      </c>
-      <c r="H42" s="92"/>
-      <c r="I42" s="52"/>
-      <c r="J42" s="51">
-        <v>7</v>
-      </c>
-      <c r="K42" s="45" t="str">
-        <f>"slide-"&amp;D42&amp;"_"&amp;G42&amp;"_"&amp;Таблица12[[#This Row],['#3]]</f>
-        <v>slide-faq_3_7</v>
-      </c>
-      <c r="L42" s="53"/>
-      <c r="M42" s="53"/>
-      <c r="N42" s="53"/>
-      <c r="O42" s="101"/>
-    </row>
-    <row r="43" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="48"/>
-      <c r="C43" s="48"/>
-      <c r="D43" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="E43" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="F43" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="G43" s="92">
-        <v>2</v>
-      </c>
-      <c r="H43" s="92"/>
-      <c r="I43" s="52"/>
-      <c r="J43" s="51">
-        <v>8</v>
-      </c>
-      <c r="K43" s="45" t="str">
-        <f>"slide-"&amp;D43&amp;"_"&amp;G43&amp;"_"&amp;Таблица12[[#This Row],['#3]]</f>
-        <v>slide-faq_2_8</v>
-      </c>
-      <c r="L43" s="53"/>
-      <c r="M43" s="53"/>
-      <c r="N43" s="53"/>
-      <c r="O43" s="101"/>
-    </row>
-    <row r="44" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="48"/>
-      <c r="C44" s="48"/>
-      <c r="D44" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="E44" s="52" t="s">
-        <v>22</v>
-      </c>
-      <c r="F44" s="52" t="s">
-        <v>22</v>
-      </c>
-      <c r="G44" s="92">
-        <v>3</v>
-      </c>
-      <c r="H44" s="92"/>
-      <c r="I44" s="52"/>
-      <c r="J44" s="51">
-        <v>9</v>
-      </c>
-      <c r="K44" s="45" t="str">
-        <f>"slide-"&amp;D44&amp;"_"&amp;G44&amp;"_"&amp;Таблица12[[#This Row],['#3]]</f>
-        <v>slide-faq_3_9</v>
-      </c>
-      <c r="L44" s="53"/>
-      <c r="M44" s="53"/>
-      <c r="N44" s="53"/>
-      <c r="O44" s="101"/>
-    </row>
-    <row r="45" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="48"/>
-      <c r="C45" s="48"/>
-      <c r="D45" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="E45" s="52" t="s">
-        <v>23</v>
-      </c>
-      <c r="F45" s="52" t="s">
-        <v>23</v>
-      </c>
-      <c r="G45" s="92">
-        <v>2</v>
-      </c>
-      <c r="H45" s="92"/>
-      <c r="I45" s="52"/>
-      <c r="J45" s="51">
-        <v>10</v>
-      </c>
-      <c r="K45" s="45" t="str">
-        <f>"slide-"&amp;D45&amp;"_"&amp;G45&amp;"_"&amp;Таблица12[[#This Row],['#3]]</f>
-        <v>slide-faq_2_10</v>
-      </c>
-      <c r="L45" s="53"/>
-      <c r="M45" s="53"/>
-      <c r="N45" s="53"/>
-      <c r="O45" s="101"/>
-    </row>
-    <row r="46" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="48"/>
-      <c r="C46" s="48"/>
-      <c r="D46" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="E46" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="F46" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="G46" s="92">
-        <v>3</v>
-      </c>
-      <c r="H46" s="92"/>
-      <c r="I46" s="52"/>
-      <c r="J46" s="51">
-        <v>11</v>
-      </c>
-      <c r="K46" s="45" t="str">
-        <f>"slide-"&amp;D46&amp;"_"&amp;G46&amp;"_"&amp;Таблица12[[#This Row],['#3]]</f>
-        <v>slide-faq_3_11</v>
-      </c>
-      <c r="L46" s="53"/>
-      <c r="M46" s="53"/>
-      <c r="N46" s="53"/>
-      <c r="O46" s="101"/>
-    </row>
-    <row r="47" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="48"/>
-      <c r="C47" s="48"/>
-      <c r="D47" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="E47" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="F47" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="G47" s="92">
-        <v>2</v>
-      </c>
-      <c r="H47" s="92"/>
-      <c r="I47" s="52"/>
-      <c r="J47" s="51">
-        <v>12</v>
-      </c>
-      <c r="K47" s="45" t="str">
-        <f>"slide-"&amp;D47&amp;"_"&amp;G47&amp;"_"&amp;Таблица12[[#This Row],['#3]]</f>
-        <v>slide-faq_2_12</v>
-      </c>
-      <c r="L47" s="53"/>
-      <c r="M47" s="53"/>
-      <c r="N47" s="53"/>
-      <c r="O47" s="101"/>
-    </row>
-    <row r="48" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="48"/>
-      <c r="C48" s="48"/>
-      <c r="D48" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="E48" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="F48" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="G48" s="92">
-        <v>3</v>
-      </c>
-      <c r="H48" s="92"/>
-      <c r="I48" s="52"/>
-      <c r="J48" s="51">
-        <v>13</v>
-      </c>
-      <c r="K48" s="45" t="str">
-        <f>"slide-"&amp;D48&amp;"_"&amp;G48&amp;"_"&amp;Таблица12[[#This Row],['#3]]</f>
-        <v>slide-faq_3_13</v>
-      </c>
-      <c r="L48" s="53"/>
-      <c r="M48" s="53"/>
-      <c r="N48" s="53"/>
-      <c r="O48" s="101"/>
-    </row>
-    <row r="49" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="48"/>
-      <c r="C49" s="48"/>
-      <c r="D49" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="E49" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="F49" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="G49" s="92">
-        <v>2</v>
-      </c>
-      <c r="H49" s="92"/>
-      <c r="I49" s="52"/>
-      <c r="J49" s="51">
-        <v>14</v>
-      </c>
-      <c r="K49" s="45" t="str">
-        <f>"slide-"&amp;D49&amp;"_"&amp;G49&amp;"_"&amp;Таблица12[[#This Row],['#3]]</f>
-        <v>slide-faq_2_14</v>
-      </c>
-      <c r="L49" s="53"/>
-      <c r="M49" s="53"/>
-      <c r="N49" s="53"/>
-      <c r="O49" s="101"/>
-    </row>
-    <row r="50" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="48"/>
-      <c r="C50" s="48"/>
-      <c r="D50" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="E50" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="F50" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="G50" s="92">
-        <v>3</v>
-      </c>
-      <c r="H50" s="92"/>
-      <c r="I50" s="52"/>
-      <c r="J50" s="51">
-        <v>15</v>
-      </c>
-      <c r="K50" s="45" t="str">
-        <f>"slide-"&amp;D50&amp;"_"&amp;G50&amp;"_"&amp;Таблица12[[#This Row],['#3]]</f>
-        <v>slide-faq_3_15</v>
-      </c>
-      <c r="L50" s="53"/>
-      <c r="M50" s="53"/>
-      <c r="N50" s="53"/>
-      <c r="O50" s="101"/>
-    </row>
-    <row r="51" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="48"/>
-      <c r="C51" s="48"/>
-      <c r="D51" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="E51" s="53" t="s">
-        <v>29</v>
-      </c>
-      <c r="F51" s="53" t="s">
-        <v>29</v>
-      </c>
-      <c r="G51" s="92">
-        <v>2</v>
-      </c>
-      <c r="H51" s="92"/>
-      <c r="I51" s="52"/>
-      <c r="J51" s="51">
-        <v>16</v>
-      </c>
-      <c r="K51" s="45" t="str">
-        <f>"slide-"&amp;D51&amp;"_"&amp;G51&amp;"_"&amp;Таблица12[[#This Row],['#3]]</f>
-        <v>slide-faq_2_16</v>
-      </c>
-      <c r="L51" s="53"/>
-      <c r="M51" s="53"/>
-      <c r="N51" s="53"/>
-      <c r="O51" s="101"/>
-    </row>
-    <row r="52" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="102"/>
-      <c r="C52" s="102"/>
-      <c r="D52" s="103" t="s">
-        <v>32</v>
-      </c>
-      <c r="E52" s="61"/>
-      <c r="F52" s="61"/>
-      <c r="G52" s="92">
-        <v>3</v>
-      </c>
-      <c r="H52" s="104"/>
-      <c r="I52" s="60"/>
-      <c r="J52" s="67">
-        <v>17</v>
-      </c>
-      <c r="K52" s="45" t="str">
-        <f>"slide-"&amp;D52&amp;"_"&amp;G52&amp;"_"&amp;Таблица12[[#This Row],['#3]]</f>
-        <v>slide-faq_3_17</v>
-      </c>
-      <c r="L52" s="61"/>
-      <c r="M52" s="61"/>
-      <c r="N52" s="53"/>
-      <c r="O52" s="105"/>
+      <c r="K51" s="84" t="str">
+        <f>"slide-"&amp;G51&amp;"_"&amp;Таблица12[[#This Row],['#3]]</f>
+        <v>slide-faq_16</v>
+      </c>
+      <c r="L51" s="83"/>
+      <c r="M51" s="83"/>
+      <c r="N51" s="83"/>
+      <c r="O51" s="83"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/commands/generate/default-templates/Structure_Example.xlsx
+++ b/commands/generate/default-templates/Structure_Example.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t.serhiytschuk\Documents\Development\test-clm-helper\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t.serhiytschuk\Documents\GitHub\vue-cli-plugin-clm-helper\commands\generate\default-templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Default" sheetId="5" r:id="rId1"/>
@@ -260,7 +260,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -284,6 +284,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -657,7 +663,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -732,12 +738,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -765,9 +765,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -790,9 +787,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1036,6 +1030,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1043,42 +1055,6 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="45">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color auto="1"/>
-        </top>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="medium">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -1091,55 +1067,26 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
+        <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="medium">
+        <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="medium">
-          <color auto="1"/>
+        <top style="thin">
+          <color indexed="64"/>
         </top>
-        <bottom style="medium">
-          <color auto="1"/>
+        <bottom style="thin">
+          <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal style="medium">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color auto="1"/>
-        </top>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="medium">
-          <color auto="1"/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
         </horizontal>
       </border>
     </dxf>
@@ -1421,6 +1368,106 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="medium">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="medium">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="medium">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -1539,76 +1586,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1682,6 +1659,41 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -2471,38 +2483,38 @@
     <tableColumn id="4" name="SlideName.ua" dataDxfId="23"/>
     <tableColumn id="3" name="SlideName.ru" dataDxfId="22"/>
     <tableColumn id="11" name="#1" dataDxfId="21"/>
-    <tableColumn id="5" name="ID" dataDxfId="20">
-      <calculatedColumnFormula>"slide-"&amp;D3</calculatedColumnFormula>
+    <tableColumn id="5" name="ID" dataDxfId="0">
+      <calculatedColumnFormula>"slide-1_"&amp;D3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Swipe.prev" dataDxfId="15"/>
-    <tableColumn id="6" name="Swipe.next" dataDxfId="14"/>
-    <tableColumn id="7" name="Комментарии" dataDxfId="19"/>
-    <tableColumn id="12" name="Переходы" dataDxfId="18"/>
+    <tableColumn id="10" name="Swipe.prev" dataDxfId="20"/>
+    <tableColumn id="6" name="Swipe.next" dataDxfId="19"/>
+    <tableColumn id="7" name="Комментарии" dataDxfId="18"/>
+    <tableColumn id="12" name="Переходы" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица12" displayName="Таблица12" ref="B2:O51" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица12" displayName="Таблица12" ref="B2:O51" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
   <autoFilter ref="B2:O51"/>
   <tableColumns count="14">
-    <tableColumn id="4" name="SuperFlowName.ua" dataDxfId="13"/>
-    <tableColumn id="1" name="SuperFlowName.ua2" dataDxfId="12"/>
-    <tableColumn id="9" name="#1" dataDxfId="0"/>
+    <tableColumn id="4" name="SuperFlowName.ua" dataDxfId="14"/>
+    <tableColumn id="1" name="SuperFlowName.ua2" dataDxfId="13"/>
+    <tableColumn id="9" name="#1" dataDxfId="12"/>
     <tableColumn id="13" name="FlowName.ru" dataDxfId="11"/>
-    <tableColumn id="2" name="FlowName.ua" dataDxfId="1"/>
-    <tableColumn id="8" name="#2" dataDxfId="2"/>
-    <tableColumn id="14" name="SlideName.ru" dataDxfId="10"/>
-    <tableColumn id="3" name="SlideName.ua" dataDxfId="9"/>
-    <tableColumn id="11" name="#3" dataDxfId="8"/>
-    <tableColumn id="5" name="ID" dataDxfId="7">
+    <tableColumn id="2" name="FlowName.ua" dataDxfId="10"/>
+    <tableColumn id="8" name="#2" dataDxfId="9"/>
+    <tableColumn id="14" name="SlideName.ru" dataDxfId="8"/>
+    <tableColumn id="3" name="SlideName.ua" dataDxfId="7"/>
+    <tableColumn id="11" name="#3" dataDxfId="6"/>
+    <tableColumn id="5" name="ID" dataDxfId="5">
       <calculatedColumnFormula>"slide-"&amp;D3&amp;"_"&amp;G3&amp;"_"&amp;Таблица12[[#This Row],['#3]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Swipe.prev" dataDxfId="6"/>
-    <tableColumn id="6" name="Swipe.next" dataDxfId="5"/>
-    <tableColumn id="7" name="Комментарии" dataDxfId="4"/>
-    <tableColumn id="12" name="Переходы" dataDxfId="3"/>
+    <tableColumn id="10" name="Swipe.prev" dataDxfId="4"/>
+    <tableColumn id="6" name="Swipe.next" dataDxfId="3"/>
+    <tableColumn id="7" name="Комментарии" dataDxfId="2"/>
+    <tableColumn id="12" name="Переходы" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2830,7 +2842,7 @@
       </c>
     </row>
     <row r="3" spans="2:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="40" t="s">
         <v>49</v>
       </c>
       <c r="C3" s="16" t="s">
@@ -2845,7 +2857,7 @@
       <c r="F3" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G3" s="51">
+      <c r="G3" s="47">
         <v>1</v>
       </c>
       <c r="H3" s="1" t="str">
@@ -2861,7 +2873,7 @@
       <c r="L3" s="19"/>
     </row>
     <row r="4" spans="2:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="B4" s="44"/>
+      <c r="B4" s="41"/>
       <c r="C4" s="17"/>
       <c r="D4" s="17">
         <v>1</v>
@@ -2872,7 +2884,7 @@
       <c r="F4" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G4" s="48">
+      <c r="G4" s="44">
         <v>2</v>
       </c>
       <c r="H4" s="3" t="str">
@@ -2885,7 +2897,7 @@
       <c r="L4" s="5"/>
     </row>
     <row r="5" spans="2:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="B5" s="44"/>
+      <c r="B5" s="41"/>
       <c r="C5" s="17"/>
       <c r="D5" s="17">
         <v>1</v>
@@ -2896,7 +2908,7 @@
       <c r="F5" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="G5" s="48">
+      <c r="G5" s="44">
         <v>3</v>
       </c>
       <c r="H5" s="3" t="str">
@@ -2915,9 +2927,9 @@
       <c r="L5" s="5"/>
     </row>
     <row r="6" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="45"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38">
+      <c r="B6" s="42"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35">
         <v>1</v>
       </c>
       <c r="E6" s="8" t="s">
@@ -2926,7 +2938,7 @@
       <c r="F6" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="G6" s="52">
+      <c r="G6" s="48">
         <v>4</v>
       </c>
       <c r="H6" s="7" t="str">
@@ -2948,23 +2960,23 @@
       <c r="D7" s="18">
         <v>2</v>
       </c>
-      <c r="E7" s="42" t="s">
+      <c r="E7" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="F7" s="42" t="s">
+      <c r="F7" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="G7" s="49">
+      <c r="G7" s="45">
         <v>1</v>
       </c>
-      <c r="H7" s="50" t="str">
+      <c r="H7" s="46" t="str">
         <f t="shared" si="0"/>
         <v>slide-2_1</v>
       </c>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="50"/>
-      <c r="L7" s="50"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
     </row>
     <row r="8" spans="2:12" ht="15" x14ac:dyDescent="0.2">
       <c r="B8" s="17"/>
@@ -2978,7 +2990,7 @@
       <c r="F8" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G8" s="48">
+      <c r="G8" s="44">
         <v>2</v>
       </c>
       <c r="H8" s="3" t="str">
@@ -3002,7 +3014,7 @@
       <c r="F9" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="G9" s="48">
+      <c r="G9" s="44">
         <v>3</v>
       </c>
       <c r="H9" s="3" t="str">
@@ -3015,31 +3027,31 @@
       <c r="L9" s="3"/>
     </row>
     <row r="10" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39">
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36">
         <v>2</v>
       </c>
-      <c r="E10" s="40" t="s">
+      <c r="E10" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="F10" s="40" t="s">
+      <c r="F10" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="G10" s="53">
+      <c r="G10" s="49">
         <v>4</v>
       </c>
-      <c r="H10" s="41" t="str">
+      <c r="H10" s="38" t="str">
         <f t="shared" si="0"/>
         <v>slide-2_4</v>
       </c>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="41"/>
-      <c r="L10" s="41"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
     </row>
     <row r="11" spans="2:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="40" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="16" t="s">
@@ -3054,7 +3066,7 @@
       <c r="F11" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G11" s="51">
+      <c r="G11" s="47">
         <v>1</v>
       </c>
       <c r="H11" s="1" t="str">
@@ -3064,10 +3076,10 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="1"/>
-      <c r="L11" s="54"/>
+      <c r="L11" s="50"/>
     </row>
     <row r="12" spans="2:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="B12" s="44"/>
+      <c r="B12" s="41"/>
       <c r="C12" s="17"/>
       <c r="D12" s="17" t="s">
         <v>32</v>
@@ -3078,7 +3090,7 @@
       <c r="F12" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G12" s="48">
+      <c r="G12" s="44">
         <v>2</v>
       </c>
       <c r="H12" s="3" t="str">
@@ -3091,7 +3103,7 @@
       <c r="L12" s="6"/>
     </row>
     <row r="13" spans="2:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="B13" s="44"/>
+      <c r="B13" s="41"/>
       <c r="C13" s="17"/>
       <c r="D13" s="17" t="s">
         <v>32</v>
@@ -3102,7 +3114,7 @@
       <c r="F13" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="G13" s="48">
+      <c r="G13" s="44">
         <v>3</v>
       </c>
       <c r="H13" s="3" t="str">
@@ -3115,9 +3127,9 @@
       <c r="L13" s="6"/>
     </row>
     <row r="14" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="45"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38" t="s">
+      <c r="B14" s="42"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35" t="s">
         <v>32</v>
       </c>
       <c r="E14" s="8" t="s">
@@ -3126,7 +3138,7 @@
       <c r="F14" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="G14" s="52">
+      <c r="G14" s="48">
         <v>4</v>
       </c>
       <c r="H14" s="7" t="str">
@@ -3151,8 +3163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3160,14 +3172,14 @@
     <col min="1" max="1" width="4.28515625" style="10" customWidth="1"/>
     <col min="2" max="3" width="17.42578125" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" style="10" customWidth="1"/>
     <col min="6" max="7" width="14.28515625" style="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.7109375" style="10" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14" style="10" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2" s="21" t="s">
         <v>40</v>
       </c>
@@ -3193,239 +3205,237 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B3" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" s="26">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3" s="124" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="27" t="str">
-        <f t="shared" ref="E3:E14" si="0">"slide-"&amp;D3</f>
-        <v>slide-1</v>
-      </c>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="37"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="126" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="127" t="str">
+        <f>"slide-"&amp;D3</f>
+        <v>slide-main</v>
+      </c>
+      <c r="F3" s="127"/>
+      <c r="G3" s="127"/>
+      <c r="H3" s="128"/>
+      <c r="I3" s="129"/>
     </row>
     <row r="4" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="43" t="s">
         <v>53</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="28">
+      <c r="D4" s="26">
         <v>2</v>
       </c>
-      <c r="E4" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v>slide-2</v>
-      </c>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="31"/>
+      <c r="E4" s="28" t="str">
+        <f t="shared" ref="E4:E14" si="0">"slide-1_"&amp;D4</f>
+        <v>slide-1_2</v>
+      </c>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="29"/>
     </row>
     <row r="5" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="43" t="s">
         <v>54</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="28">
+      <c r="D5" s="26">
         <v>3</v>
       </c>
-      <c r="E5" s="30" t="str">
+      <c r="E5" s="28" t="str">
         <f t="shared" si="0"/>
-        <v>slide-3</v>
-      </c>
-      <c r="F5" s="30" t="str">
+        <v>slide-1_3</v>
+      </c>
+      <c r="F5" s="28" t="str">
         <f>E12</f>
-        <v>slide-10</v>
-      </c>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="31"/>
+        <v>slide-1_10</v>
+      </c>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="29"/>
     </row>
     <row r="6" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="43" t="s">
         <v>55</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D6" s="28">
+      <c r="D6" s="26">
         <v>4</v>
       </c>
-      <c r="E6" s="30" t="str">
+      <c r="E6" s="28" t="str">
         <f t="shared" si="0"/>
-        <v>slide-4</v>
-      </c>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="31"/>
+        <v>slide-1_4</v>
+      </c>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="29"/>
     </row>
     <row r="7" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="43" t="s">
         <v>60</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D7" s="28">
+      <c r="D7" s="26">
         <v>5</v>
       </c>
-      <c r="E7" s="30" t="str">
+      <c r="E7" s="28" t="str">
         <f t="shared" si="0"/>
-        <v>slide-5</v>
-      </c>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="31"/>
+        <v>slide-1_5</v>
+      </c>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="29"/>
     </row>
     <row r="8" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="43" t="s">
         <v>61</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D8" s="28">
+      <c r="D8" s="26">
         <v>6</v>
       </c>
-      <c r="E8" s="30" t="str">
+      <c r="E8" s="28" t="str">
         <f t="shared" si="0"/>
-        <v>slide-6</v>
-      </c>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30" t="str">
+        <v>slide-1_6</v>
+      </c>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28" t="str">
         <f>E13</f>
-        <v>slide-11</v>
-      </c>
-      <c r="H8" s="30"/>
-      <c r="I8" s="31"/>
+        <v>slide-1_11</v>
+      </c>
+      <c r="H8" s="28"/>
+      <c r="I8" s="29"/>
     </row>
     <row r="9" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B9" s="47" t="s">
+      <c r="B9" s="43" t="s">
         <v>62</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D9" s="28">
+      <c r="D9" s="26">
         <v>7</v>
       </c>
-      <c r="E9" s="30" t="str">
+      <c r="E9" s="28" t="str">
         <f t="shared" si="0"/>
-        <v>slide-7</v>
-      </c>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="31"/>
+        <v>slide-1_7</v>
+      </c>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="29"/>
     </row>
     <row r="10" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="43" t="s">
         <v>63</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="28">
+      <c r="D10" s="26">
         <v>8</v>
       </c>
-      <c r="E10" s="30" t="str">
+      <c r="E10" s="28" t="str">
         <f t="shared" si="0"/>
-        <v>slide-8</v>
-      </c>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="31"/>
+        <v>slide-1_8</v>
+      </c>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="29"/>
     </row>
     <row r="11" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B11" s="47" t="s">
+      <c r="B11" s="43" t="s">
         <v>64</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D11" s="28">
+      <c r="D11" s="26">
         <v>9</v>
       </c>
-      <c r="E11" s="30" t="str">
+      <c r="E11" s="28" t="str">
         <f t="shared" si="0"/>
-        <v>slide-9</v>
-      </c>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="35"/>
+        <v>slide-1_9</v>
+      </c>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="33"/>
     </row>
     <row r="12" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B12" s="47" t="s">
+      <c r="B12" s="43" t="s">
         <v>65</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D12" s="28">
+      <c r="D12" s="26">
         <v>10</v>
       </c>
-      <c r="E12" s="30" t="str">
+      <c r="E12" s="28" t="str">
         <f t="shared" si="0"/>
-        <v>slide-10</v>
-      </c>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="35"/>
+        <v>slide-1_10</v>
+      </c>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="33"/>
     </row>
     <row r="13" spans="2:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="B13" s="47" t="s">
+      <c r="B13" s="43" t="s">
         <v>66</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D13" s="28">
+      <c r="D13" s="26">
         <v>11</v>
       </c>
-      <c r="E13" s="30" t="str">
+      <c r="E13" s="28" t="str">
         <f t="shared" si="0"/>
-        <v>slide-11</v>
-      </c>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="35"/>
+        <v>slide-1_11</v>
+      </c>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="33"/>
     </row>
     <row r="14" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="47" t="s">
+      <c r="B14" s="43" t="s">
         <v>67</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D14" s="32">
+      <c r="D14" s="30">
         <v>12</v>
       </c>
-      <c r="E14" s="34" t="str">
+      <c r="E14" s="32" t="str">
         <f t="shared" si="0"/>
-        <v>slide-12</v>
-      </c>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="36"/>
+        <v>slide-1_12</v>
+      </c>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="34"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3439,7 +3449,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
@@ -3506,1433 +3516,1433 @@
       </c>
     </row>
     <row r="3" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="65" t="s">
+      <c r="C3" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="71"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="86" t="s">
+      <c r="D3" s="67"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="99"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="65" t="str">
+      <c r="H3" s="95"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="61" t="str">
         <f>"slide-"&amp;G3</f>
         <v>slide-main</v>
       </c>
-      <c r="L3" s="65"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="65"/>
-      <c r="O3" s="65"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
     </row>
     <row r="4" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="93" t="s">
+      <c r="B4" s="89" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="93" t="s">
+      <c r="C4" s="89" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="94">
+      <c r="D4" s="90">
         <v>1</v>
       </c>
-      <c r="E4" s="55" t="s">
+      <c r="E4" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="95" t="s">
+      <c r="F4" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="96">
+      <c r="G4" s="92">
         <v>1</v>
       </c>
-      <c r="H4" s="100"/>
-      <c r="I4" s="95"/>
-      <c r="J4" s="96">
+      <c r="H4" s="96"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="92">
         <v>1</v>
       </c>
-      <c r="K4" s="95" t="str">
+      <c r="K4" s="91" t="str">
         <f>"slide-"&amp;D4&amp;"_"&amp;G4&amp;"_"&amp;J4</f>
         <v>slide-1_1_1</v>
       </c>
-      <c r="L4" s="95"/>
-      <c r="M4" s="95"/>
-      <c r="N4" s="95"/>
-      <c r="O4" s="95" t="s">
+      <c r="L4" s="91"/>
+      <c r="M4" s="91"/>
+      <c r="N4" s="91"/>
+      <c r="O4" s="91" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="93"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="94">
+      <c r="B5" s="89"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="90">
         <v>1</v>
       </c>
-      <c r="E5" s="55" t="s">
+      <c r="E5" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="95" t="s">
+      <c r="F5" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="96">
+      <c r="G5" s="92">
         <v>2</v>
       </c>
-      <c r="H5" s="100"/>
-      <c r="I5" s="95"/>
-      <c r="J5" s="96">
+      <c r="H5" s="96"/>
+      <c r="I5" s="91"/>
+      <c r="J5" s="92">
         <v>2</v>
       </c>
-      <c r="K5" s="95" t="str">
+      <c r="K5" s="91" t="str">
         <f>"slide-"&amp;D5&amp;"_"&amp;G5&amp;"_"&amp;Таблица12[[#This Row],['#3]]</f>
         <v>slide-1_2_2</v>
       </c>
-      <c r="L5" s="95"/>
-      <c r="M5" s="95" t="str">
+      <c r="L5" s="91"/>
+      <c r="M5" s="91" t="str">
         <f>K11</f>
         <v>slide-1_4_8</v>
       </c>
-      <c r="N5" s="95"/>
-      <c r="O5" s="95"/>
+      <c r="N5" s="91"/>
+      <c r="O5" s="91"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="66"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="72">
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="68">
         <v>1</v>
       </c>
-      <c r="E6" s="56" t="s">
+      <c r="E6" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="77" t="s">
+      <c r="F6" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="87">
+      <c r="G6" s="83">
         <v>3</v>
       </c>
-      <c r="H6" s="57" t="s">
+      <c r="H6" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="I6" s="77" t="s">
+      <c r="I6" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="J6" s="87">
+      <c r="J6" s="83">
         <v>3</v>
       </c>
-      <c r="K6" s="77" t="str">
+      <c r="K6" s="73" t="str">
         <f>"slide-"&amp;D6&amp;"_"&amp;G6&amp;"_"&amp;Таблица12[[#This Row],['#3]]</f>
         <v>slide-1_3_3</v>
       </c>
-      <c r="L6" s="77"/>
-      <c r="M6" s="77" t="str">
+      <c r="L6" s="73"/>
+      <c r="M6" s="73" t="str">
         <f>K21</f>
         <v>slide-2_3_4</v>
       </c>
-      <c r="N6" s="77"/>
-      <c r="O6" s="77"/>
+      <c r="N6" s="73"/>
+      <c r="O6" s="73"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="67"/>
-      <c r="C7" s="67"/>
-      <c r="D7" s="73">
+      <c r="B7" s="63"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="69">
         <v>1</v>
       </c>
-      <c r="E7" s="58"/>
-      <c r="F7" s="78"/>
-      <c r="G7" s="88">
+      <c r="E7" s="54"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="84">
         <v>3</v>
       </c>
-      <c r="H7" s="60" t="s">
+      <c r="H7" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="78" t="s">
+      <c r="I7" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="88">
+      <c r="J7" s="84">
         <v>4</v>
       </c>
-      <c r="K7" s="78" t="str">
+      <c r="K7" s="74" t="str">
         <f>"slide-"&amp;D7&amp;"_"&amp;G7&amp;"_"&amp;Таблица12[[#This Row],['#3]]</f>
         <v>slide-1_3_4</v>
       </c>
-      <c r="L7" s="78"/>
-      <c r="M7" s="78"/>
-      <c r="N7" s="78"/>
-      <c r="O7" s="78"/>
+      <c r="L7" s="74"/>
+      <c r="M7" s="74"/>
+      <c r="N7" s="74"/>
+      <c r="O7" s="74"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="67"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="73">
+      <c r="B8" s="63"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="69">
         <v>1</v>
       </c>
-      <c r="E8" s="58"/>
-      <c r="F8" s="78"/>
-      <c r="G8" s="88">
+      <c r="E8" s="54"/>
+      <c r="F8" s="74"/>
+      <c r="G8" s="84">
         <v>3</v>
       </c>
-      <c r="H8" s="60" t="s">
+      <c r="H8" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="78" t="s">
+      <c r="I8" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="J8" s="88">
+      <c r="J8" s="84">
         <v>5</v>
       </c>
-      <c r="K8" s="78" t="str">
+      <c r="K8" s="74" t="str">
         <f>"slide-"&amp;D8&amp;"_"&amp;G8&amp;"_"&amp;Таблица12[[#This Row],['#3]]</f>
         <v>slide-1_3_5</v>
       </c>
-      <c r="L8" s="78"/>
-      <c r="M8" s="78"/>
-      <c r="N8" s="78"/>
-      <c r="O8" s="78"/>
+      <c r="L8" s="74"/>
+      <c r="M8" s="74"/>
+      <c r="N8" s="74"/>
+      <c r="O8" s="74"/>
     </row>
     <row r="9" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="68"/>
-      <c r="C9" s="68"/>
-      <c r="D9" s="74">
+      <c r="B9" s="64"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="70">
         <v>1</v>
       </c>
-      <c r="E9" s="61"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="89">
+      <c r="E9" s="57"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="85">
         <v>3</v>
       </c>
-      <c r="H9" s="62" t="s">
+      <c r="H9" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="79" t="s">
+      <c r="I9" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="J9" s="89">
+      <c r="J9" s="85">
         <v>6</v>
       </c>
-      <c r="K9" s="79" t="str">
+      <c r="K9" s="75" t="str">
         <f>"slide-"&amp;D9&amp;"_"&amp;G9&amp;"_"&amp;Таблица12[[#This Row],['#3]]</f>
         <v>slide-1_3_6</v>
       </c>
-      <c r="L9" s="79"/>
-      <c r="M9" s="79"/>
-      <c r="N9" s="79"/>
-      <c r="O9" s="79"/>
+      <c r="L9" s="75"/>
+      <c r="M9" s="75"/>
+      <c r="N9" s="75"/>
+      <c r="O9" s="75"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="66"/>
-      <c r="C10" s="66"/>
-      <c r="D10" s="72">
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="68">
         <v>1</v>
       </c>
-      <c r="E10" s="56" t="s">
+      <c r="E10" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="77" t="s">
+      <c r="F10" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="87">
+      <c r="G10" s="83">
         <v>4</v>
       </c>
-      <c r="H10" s="57" t="s">
+      <c r="H10" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="I10" s="77" t="s">
+      <c r="I10" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="J10" s="87">
+      <c r="J10" s="83">
         <v>7</v>
       </c>
-      <c r="K10" s="77" t="str">
+      <c r="K10" s="73" t="str">
         <f>"slide-"&amp;D10&amp;"_"&amp;G10&amp;"_"&amp;Таблица12[[#This Row],['#3]]</f>
         <v>slide-1_4_7</v>
       </c>
-      <c r="L10" s="77"/>
-      <c r="M10" s="77"/>
-      <c r="N10" s="77"/>
-      <c r="O10" s="77"/>
+      <c r="L10" s="73"/>
+      <c r="M10" s="73"/>
+      <c r="N10" s="73"/>
+      <c r="O10" s="73"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="67"/>
-      <c r="C11" s="67"/>
-      <c r="D11" s="73">
+      <c r="B11" s="63"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="69">
         <v>1</v>
       </c>
-      <c r="E11" s="58"/>
-      <c r="F11" s="78"/>
-      <c r="G11" s="88">
+      <c r="E11" s="54"/>
+      <c r="F11" s="74"/>
+      <c r="G11" s="84">
         <v>4</v>
       </c>
-      <c r="H11" s="60" t="s">
+      <c r="H11" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="I11" s="78" t="s">
+      <c r="I11" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="J11" s="88">
+      <c r="J11" s="84">
         <v>8</v>
       </c>
-      <c r="K11" s="78" t="str">
+      <c r="K11" s="74" t="str">
         <f>"slide-"&amp;D11&amp;"_"&amp;G11&amp;"_"&amp;Таблица12[[#This Row],['#3]]</f>
         <v>slide-1_4_8</v>
       </c>
-      <c r="L11" s="78"/>
-      <c r="M11" s="78"/>
-      <c r="N11" s="78"/>
-      <c r="O11" s="78"/>
+      <c r="L11" s="74"/>
+      <c r="M11" s="74"/>
+      <c r="N11" s="74"/>
+      <c r="O11" s="74"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="67"/>
-      <c r="C12" s="67"/>
-      <c r="D12" s="73">
+      <c r="B12" s="63"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="69">
         <v>1</v>
       </c>
-      <c r="E12" s="58"/>
-      <c r="F12" s="78"/>
-      <c r="G12" s="88">
+      <c r="E12" s="54"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="84">
         <v>4</v>
       </c>
-      <c r="H12" s="60" t="s">
+      <c r="H12" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="I12" s="78" t="s">
+      <c r="I12" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="J12" s="88">
+      <c r="J12" s="84">
         <v>9</v>
       </c>
-      <c r="K12" s="78" t="str">
+      <c r="K12" s="74" t="str">
         <f>"slide-"&amp;D12&amp;"_"&amp;G12&amp;"_"&amp;Таблица12[[#This Row],['#3]]</f>
         <v>slide-1_4_9</v>
       </c>
-      <c r="L12" s="78"/>
-      <c r="M12" s="78"/>
-      <c r="N12" s="78"/>
-      <c r="O12" s="78"/>
+      <c r="L12" s="74"/>
+      <c r="M12" s="74"/>
+      <c r="N12" s="74"/>
+      <c r="O12" s="74"/>
     </row>
     <row r="13" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="68"/>
-      <c r="C13" s="68"/>
-      <c r="D13" s="74">
+      <c r="B13" s="64"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="70">
         <v>1</v>
       </c>
-      <c r="E13" s="61"/>
-      <c r="F13" s="79"/>
-      <c r="G13" s="89">
+      <c r="E13" s="57"/>
+      <c r="F13" s="75"/>
+      <c r="G13" s="85">
         <v>4</v>
       </c>
-      <c r="H13" s="62" t="s">
+      <c r="H13" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="I13" s="79" t="s">
+      <c r="I13" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="J13" s="89">
+      <c r="J13" s="85">
         <v>10</v>
       </c>
-      <c r="K13" s="79" t="str">
+      <c r="K13" s="75" t="str">
         <f>"slide-"&amp;D13&amp;"_"&amp;G13&amp;"_"&amp;Таблица12[[#This Row],['#3]]</f>
         <v>slide-1_4_10</v>
       </c>
-      <c r="L13" s="79"/>
-      <c r="M13" s="79"/>
-      <c r="N13" s="79"/>
-      <c r="O13" s="79"/>
+      <c r="L13" s="75"/>
+      <c r="M13" s="75"/>
+      <c r="N13" s="75"/>
+      <c r="O13" s="75"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="67"/>
-      <c r="C14" s="67"/>
-      <c r="D14" s="73">
+      <c r="B14" s="63"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="69">
         <v>1</v>
       </c>
-      <c r="E14" s="58" t="s">
+      <c r="E14" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="78" t="s">
+      <c r="F14" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="88">
+      <c r="G14" s="84">
         <v>5</v>
       </c>
-      <c r="H14" s="60" t="s">
+      <c r="H14" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="I14" s="78" t="s">
+      <c r="I14" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="J14" s="88">
+      <c r="J14" s="84">
         <v>11</v>
       </c>
-      <c r="K14" s="78" t="str">
+      <c r="K14" s="74" t="str">
         <f>"slide-"&amp;D14&amp;"_"&amp;G14&amp;"_"&amp;Таблица12[[#This Row],['#3]]</f>
         <v>slide-1_5_11</v>
       </c>
-      <c r="L14" s="78"/>
-      <c r="M14" s="78"/>
-      <c r="N14" s="78"/>
-      <c r="O14" s="78"/>
+      <c r="L14" s="74"/>
+      <c r="M14" s="74"/>
+      <c r="N14" s="74"/>
+      <c r="O14" s="74"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="67"/>
-      <c r="C15" s="67"/>
-      <c r="D15" s="73">
+      <c r="B15" s="63"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="69">
         <v>1</v>
       </c>
-      <c r="E15" s="58"/>
-      <c r="F15" s="78"/>
-      <c r="G15" s="88">
+      <c r="E15" s="54"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="84">
         <v>5</v>
       </c>
-      <c r="H15" s="60" t="s">
+      <c r="H15" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="I15" s="78" t="s">
+      <c r="I15" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="J15" s="88">
+      <c r="J15" s="84">
         <v>12</v>
       </c>
-      <c r="K15" s="78" t="str">
+      <c r="K15" s="74" t="str">
         <f>"slide-"&amp;D15&amp;"_"&amp;G15&amp;"_"&amp;Таблица12[[#This Row],['#3]]</f>
         <v>slide-1_5_12</v>
       </c>
-      <c r="L15" s="78"/>
-      <c r="M15" s="78"/>
-      <c r="N15" s="78"/>
-      <c r="O15" s="78"/>
+      <c r="L15" s="74"/>
+      <c r="M15" s="74"/>
+      <c r="N15" s="74"/>
+      <c r="O15" s="74"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="67"/>
-      <c r="C16" s="67"/>
-      <c r="D16" s="73">
+      <c r="B16" s="63"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="69">
         <v>1</v>
       </c>
-      <c r="E16" s="58"/>
-      <c r="F16" s="78"/>
-      <c r="G16" s="88">
+      <c r="E16" s="54"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="84">
         <v>5</v>
       </c>
-      <c r="H16" s="60" t="s">
+      <c r="H16" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="I16" s="78" t="s">
+      <c r="I16" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="J16" s="88">
+      <c r="J16" s="84">
         <v>13</v>
       </c>
-      <c r="K16" s="78" t="str">
+      <c r="K16" s="74" t="str">
         <f>"slide-"&amp;D16&amp;"_"&amp;G16&amp;"_"&amp;Таблица12[[#This Row],['#3]]</f>
         <v>slide-1_5_13</v>
       </c>
-      <c r="L16" s="78"/>
-      <c r="M16" s="78"/>
-      <c r="N16" s="78"/>
-      <c r="O16" s="78"/>
+      <c r="L16" s="74"/>
+      <c r="M16" s="74"/>
+      <c r="N16" s="74"/>
+      <c r="O16" s="74"/>
     </row>
     <row r="17" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="68"/>
-      <c r="C17" s="68"/>
-      <c r="D17" s="74">
+      <c r="B17" s="64"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="70">
         <v>1</v>
       </c>
-      <c r="E17" s="61"/>
-      <c r="F17" s="79"/>
-      <c r="G17" s="89">
+      <c r="E17" s="57"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="85">
         <v>5</v>
       </c>
-      <c r="H17" s="62" t="s">
+      <c r="H17" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="I17" s="79" t="s">
+      <c r="I17" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="J17" s="89">
+      <c r="J17" s="85">
         <v>14</v>
       </c>
-      <c r="K17" s="79" t="str">
+      <c r="K17" s="75" t="str">
         <f>"slide-"&amp;D17&amp;"_"&amp;G17&amp;"_"&amp;Таблица12[[#This Row],['#3]]</f>
         <v>slide-1_5_14</v>
       </c>
-      <c r="L17" s="79"/>
-      <c r="M17" s="79"/>
-      <c r="N17" s="79"/>
-      <c r="O17" s="79"/>
+      <c r="L17" s="75"/>
+      <c r="M17" s="75"/>
+      <c r="N17" s="75"/>
+      <c r="O17" s="75"/>
     </row>
     <row r="18" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="104" t="s">
+      <c r="B18" s="100" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="104" t="s">
+      <c r="C18" s="100" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="105">
+      <c r="D18" s="101">
         <v>2</v>
       </c>
-      <c r="E18" s="106" t="s">
+      <c r="E18" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="F18" s="107" t="s">
+      <c r="F18" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="G18" s="108">
+      <c r="G18" s="104">
         <v>1</v>
       </c>
-      <c r="H18" s="109"/>
-      <c r="I18" s="107"/>
-      <c r="J18" s="108">
+      <c r="H18" s="105"/>
+      <c r="I18" s="103"/>
+      <c r="J18" s="104">
         <v>1</v>
       </c>
-      <c r="K18" s="107" t="str">
+      <c r="K18" s="103" t="str">
         <f>"slide-"&amp;D18&amp;"_"&amp;G18&amp;"_"&amp;Таблица12[[#This Row],['#3]]</f>
         <v>slide-2_1_1</v>
       </c>
-      <c r="L18" s="107"/>
-      <c r="M18" s="107"/>
-      <c r="N18" s="107"/>
-      <c r="O18" s="107"/>
+      <c r="L18" s="103"/>
+      <c r="M18" s="103"/>
+      <c r="N18" s="103"/>
+      <c r="O18" s="103"/>
     </row>
     <row r="19" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="110"/>
-      <c r="C19" s="110"/>
-      <c r="D19" s="111">
+      <c r="B19" s="106"/>
+      <c r="C19" s="106"/>
+      <c r="D19" s="107">
         <v>2</v>
       </c>
-      <c r="E19" s="112" t="s">
+      <c r="E19" s="108" t="s">
         <v>45</v>
       </c>
-      <c r="F19" s="113" t="s">
+      <c r="F19" s="109" t="s">
         <v>45</v>
       </c>
-      <c r="G19" s="114">
+      <c r="G19" s="110">
         <v>2</v>
       </c>
-      <c r="H19" s="115"/>
-      <c r="I19" s="113"/>
-      <c r="J19" s="114">
+      <c r="H19" s="111"/>
+      <c r="I19" s="109"/>
+      <c r="J19" s="110">
         <v>2</v>
       </c>
-      <c r="K19" s="113" t="str">
+      <c r="K19" s="109" t="str">
         <f>"slide-"&amp;D19&amp;"_"&amp;G19&amp;"_"&amp;Таблица12[[#This Row],['#3]]</f>
         <v>slide-2_2_2</v>
       </c>
-      <c r="L19" s="113"/>
-      <c r="M19" s="113"/>
-      <c r="N19" s="113"/>
-      <c r="O19" s="113"/>
+      <c r="L19" s="109"/>
+      <c r="M19" s="109"/>
+      <c r="N19" s="109"/>
+      <c r="O19" s="109"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B20" s="116"/>
-      <c r="C20" s="116"/>
-      <c r="D20" s="117">
+      <c r="B20" s="112"/>
+      <c r="C20" s="112"/>
+      <c r="D20" s="113">
         <v>2</v>
       </c>
-      <c r="E20" s="118" t="s">
+      <c r="E20" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="F20" s="119" t="s">
+      <c r="F20" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="G20" s="120">
+      <c r="G20" s="116">
         <v>3</v>
       </c>
-      <c r="H20" s="121" t="s">
+      <c r="H20" s="117" t="s">
         <v>2</v>
       </c>
-      <c r="I20" s="119" t="s">
+      <c r="I20" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="J20" s="120">
+      <c r="J20" s="116">
         <v>3</v>
       </c>
-      <c r="K20" s="119" t="str">
+      <c r="K20" s="115" t="str">
         <f>"slide-"&amp;D20&amp;"_"&amp;G20&amp;"_"&amp;Таблица12[[#This Row],['#3]]</f>
         <v>slide-2_3_3</v>
       </c>
-      <c r="L20" s="119"/>
-      <c r="M20" s="119"/>
-      <c r="N20" s="119"/>
-      <c r="O20" s="119"/>
+      <c r="L20" s="115"/>
+      <c r="M20" s="115"/>
+      <c r="N20" s="115"/>
+      <c r="O20" s="115"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B21" s="110"/>
-      <c r="C21" s="110"/>
-      <c r="D21" s="111">
+      <c r="B21" s="106"/>
+      <c r="C21" s="106"/>
+      <c r="D21" s="107">
         <v>2</v>
       </c>
-      <c r="E21" s="112"/>
-      <c r="F21" s="113"/>
-      <c r="G21" s="114">
+      <c r="E21" s="108"/>
+      <c r="F21" s="109"/>
+      <c r="G21" s="110">
         <v>3</v>
       </c>
-      <c r="H21" s="115" t="s">
+      <c r="H21" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="I21" s="113" t="s">
+      <c r="I21" s="109" t="s">
         <v>5</v>
       </c>
-      <c r="J21" s="114">
+      <c r="J21" s="110">
         <v>4</v>
       </c>
-      <c r="K21" s="113" t="str">
+      <c r="K21" s="109" t="str">
         <f>"slide-"&amp;D21&amp;"_"&amp;G21&amp;"_"&amp;Таблица12[[#This Row],['#3]]</f>
         <v>slide-2_3_4</v>
       </c>
-      <c r="L21" s="113"/>
-      <c r="M21" s="113"/>
-      <c r="N21" s="113"/>
-      <c r="O21" s="113"/>
+      <c r="L21" s="109"/>
+      <c r="M21" s="109"/>
+      <c r="N21" s="109"/>
+      <c r="O21" s="109"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B22" s="110"/>
-      <c r="C22" s="110"/>
-      <c r="D22" s="111">
+      <c r="B22" s="106"/>
+      <c r="C22" s="106"/>
+      <c r="D22" s="107">
         <v>2</v>
       </c>
-      <c r="E22" s="112"/>
-      <c r="F22" s="113"/>
-      <c r="G22" s="114">
+      <c r="E22" s="108"/>
+      <c r="F22" s="109"/>
+      <c r="G22" s="110">
         <v>3</v>
       </c>
-      <c r="H22" s="115" t="s">
+      <c r="H22" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="I22" s="113" t="s">
+      <c r="I22" s="109" t="s">
         <v>6</v>
       </c>
-      <c r="J22" s="114">
+      <c r="J22" s="110">
         <v>5</v>
       </c>
-      <c r="K22" s="113" t="str">
+      <c r="K22" s="109" t="str">
         <f>"slide-"&amp;D22&amp;"_"&amp;G22&amp;"_"&amp;Таблица12[[#This Row],['#3]]</f>
         <v>slide-2_3_5</v>
       </c>
-      <c r="L22" s="113"/>
-      <c r="M22" s="113"/>
-      <c r="N22" s="113"/>
-      <c r="O22" s="113"/>
+      <c r="L22" s="109"/>
+      <c r="M22" s="109"/>
+      <c r="N22" s="109"/>
+      <c r="O22" s="109"/>
     </row>
     <row r="23" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="122"/>
-      <c r="C23" s="122"/>
-      <c r="D23" s="123">
+      <c r="B23" s="118"/>
+      <c r="C23" s="118"/>
+      <c r="D23" s="119">
         <v>2</v>
       </c>
-      <c r="E23" s="124"/>
-      <c r="F23" s="125"/>
-      <c r="G23" s="126">
+      <c r="E23" s="120"/>
+      <c r="F23" s="121"/>
+      <c r="G23" s="122">
         <v>3</v>
       </c>
-      <c r="H23" s="127" t="s">
+      <c r="H23" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="I23" s="125" t="s">
+      <c r="I23" s="121" t="s">
         <v>7</v>
       </c>
-      <c r="J23" s="126">
+      <c r="J23" s="122">
         <v>6</v>
       </c>
-      <c r="K23" s="125" t="str">
+      <c r="K23" s="121" t="str">
         <f>"slide-"&amp;D23&amp;"_"&amp;G23&amp;"_"&amp;Таблица12[[#This Row],['#3]]</f>
         <v>slide-2_3_6</v>
       </c>
-      <c r="L23" s="125"/>
-      <c r="M23" s="125"/>
-      <c r="N23" s="125"/>
-      <c r="O23" s="125"/>
+      <c r="L23" s="121"/>
+      <c r="M23" s="121"/>
+      <c r="N23" s="121"/>
+      <c r="O23" s="121"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B24" s="116"/>
-      <c r="C24" s="116"/>
-      <c r="D24" s="117">
+      <c r="B24" s="112"/>
+      <c r="C24" s="112"/>
+      <c r="D24" s="113">
         <v>2</v>
       </c>
-      <c r="E24" s="118" t="s">
+      <c r="E24" s="114" t="s">
         <v>10</v>
       </c>
-      <c r="F24" s="119" t="s">
+      <c r="F24" s="115" t="s">
         <v>10</v>
       </c>
-      <c r="G24" s="120">
+      <c r="G24" s="116">
         <v>4</v>
       </c>
-      <c r="H24" s="121" t="s">
+      <c r="H24" s="117" t="s">
         <v>2</v>
       </c>
-      <c r="I24" s="119" t="s">
+      <c r="I24" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="J24" s="120">
+      <c r="J24" s="116">
         <v>7</v>
       </c>
-      <c r="K24" s="119" t="str">
+      <c r="K24" s="115" t="str">
         <f>"slide-"&amp;D24&amp;"_"&amp;G24&amp;"_"&amp;Таблица12[[#This Row],['#3]]</f>
         <v>slide-2_4_7</v>
       </c>
-      <c r="L24" s="119"/>
-      <c r="M24" s="119"/>
-      <c r="N24" s="119"/>
-      <c r="O24" s="119"/>
+      <c r="L24" s="115"/>
+      <c r="M24" s="115"/>
+      <c r="N24" s="115"/>
+      <c r="O24" s="115"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B25" s="110"/>
-      <c r="C25" s="110"/>
-      <c r="D25" s="111">
+      <c r="B25" s="106"/>
+      <c r="C25" s="106"/>
+      <c r="D25" s="107">
         <v>2</v>
       </c>
-      <c r="E25" s="112"/>
-      <c r="F25" s="113"/>
-      <c r="G25" s="114">
+      <c r="E25" s="108"/>
+      <c r="F25" s="109"/>
+      <c r="G25" s="110">
         <v>4</v>
       </c>
-      <c r="H25" s="115" t="s">
+      <c r="H25" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="I25" s="113" t="s">
+      <c r="I25" s="109" t="s">
         <v>5</v>
       </c>
-      <c r="J25" s="114">
+      <c r="J25" s="110">
         <v>8</v>
       </c>
-      <c r="K25" s="113" t="str">
+      <c r="K25" s="109" t="str">
         <f>"slide-"&amp;D25&amp;"_"&amp;G25&amp;"_"&amp;Таблица12[[#This Row],['#3]]</f>
         <v>slide-2_4_8</v>
       </c>
-      <c r="L25" s="113"/>
-      <c r="M25" s="113"/>
-      <c r="N25" s="113"/>
-      <c r="O25" s="113"/>
+      <c r="L25" s="109"/>
+      <c r="M25" s="109"/>
+      <c r="N25" s="109"/>
+      <c r="O25" s="109"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B26" s="110"/>
-      <c r="C26" s="110"/>
-      <c r="D26" s="111">
+      <c r="B26" s="106"/>
+      <c r="C26" s="106"/>
+      <c r="D26" s="107">
         <v>2</v>
       </c>
-      <c r="E26" s="112"/>
-      <c r="F26" s="113"/>
-      <c r="G26" s="114">
+      <c r="E26" s="108"/>
+      <c r="F26" s="109"/>
+      <c r="G26" s="110">
         <v>4</v>
       </c>
-      <c r="H26" s="115" t="s">
+      <c r="H26" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="I26" s="113" t="s">
+      <c r="I26" s="109" t="s">
         <v>6</v>
       </c>
-      <c r="J26" s="114">
+      <c r="J26" s="110">
         <v>9</v>
       </c>
-      <c r="K26" s="113" t="str">
+      <c r="K26" s="109" t="str">
         <f>"slide-"&amp;D26&amp;"_"&amp;G26&amp;"_"&amp;Таблица12[[#This Row],['#3]]</f>
         <v>slide-2_4_9</v>
       </c>
-      <c r="L26" s="113"/>
-      <c r="M26" s="113"/>
-      <c r="N26" s="113"/>
-      <c r="O26" s="113"/>
+      <c r="L26" s="109"/>
+      <c r="M26" s="109"/>
+      <c r="N26" s="109"/>
+      <c r="O26" s="109"/>
     </row>
     <row r="27" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="122"/>
-      <c r="C27" s="122"/>
-      <c r="D27" s="123">
+      <c r="B27" s="118"/>
+      <c r="C27" s="118"/>
+      <c r="D27" s="119">
         <v>2</v>
       </c>
-      <c r="E27" s="124"/>
-      <c r="F27" s="125"/>
-      <c r="G27" s="126">
+      <c r="E27" s="120"/>
+      <c r="F27" s="121"/>
+      <c r="G27" s="122">
         <v>4</v>
       </c>
-      <c r="H27" s="127" t="s">
+      <c r="H27" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="I27" s="125" t="s">
+      <c r="I27" s="121" t="s">
         <v>7</v>
       </c>
-      <c r="J27" s="126">
+      <c r="J27" s="122">
         <v>10</v>
       </c>
-      <c r="K27" s="125" t="str">
+      <c r="K27" s="121" t="str">
         <f>"slide-"&amp;D27&amp;"_"&amp;G27&amp;"_"&amp;Таблица12[[#This Row],['#3]]</f>
         <v>slide-2_4_10</v>
       </c>
-      <c r="L27" s="125"/>
-      <c r="M27" s="125"/>
-      <c r="N27" s="125"/>
-      <c r="O27" s="125"/>
+      <c r="L27" s="121"/>
+      <c r="M27" s="121"/>
+      <c r="N27" s="121"/>
+      <c r="O27" s="121"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B28" s="110"/>
-      <c r="C28" s="110"/>
-      <c r="D28" s="111">
+      <c r="B28" s="106"/>
+      <c r="C28" s="106"/>
+      <c r="D28" s="107">
         <v>2</v>
       </c>
-      <c r="E28" s="112" t="s">
+      <c r="E28" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="F28" s="113" t="s">
+      <c r="F28" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="G28" s="114">
+      <c r="G28" s="110">
         <v>5</v>
       </c>
-      <c r="H28" s="115" t="s">
+      <c r="H28" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="I28" s="113" t="s">
+      <c r="I28" s="109" t="s">
         <v>2</v>
       </c>
-      <c r="J28" s="114">
+      <c r="J28" s="110">
         <v>11</v>
       </c>
-      <c r="K28" s="113" t="str">
+      <c r="K28" s="109" t="str">
         <f>"slide-"&amp;D28&amp;"_"&amp;G28&amp;"_"&amp;Таблица12[[#This Row],['#3]]</f>
         <v>slide-2_5_11</v>
       </c>
-      <c r="L28" s="113"/>
-      <c r="M28" s="113"/>
-      <c r="N28" s="113"/>
-      <c r="O28" s="113"/>
+      <c r="L28" s="109"/>
+      <c r="M28" s="109"/>
+      <c r="N28" s="109"/>
+      <c r="O28" s="109"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B29" s="110"/>
-      <c r="C29" s="110"/>
-      <c r="D29" s="111">
+      <c r="B29" s="106"/>
+      <c r="C29" s="106"/>
+      <c r="D29" s="107">
         <v>2</v>
       </c>
-      <c r="E29" s="112"/>
-      <c r="F29" s="113"/>
-      <c r="G29" s="114">
+      <c r="E29" s="108"/>
+      <c r="F29" s="109"/>
+      <c r="G29" s="110">
         <v>5</v>
       </c>
-      <c r="H29" s="115" t="s">
+      <c r="H29" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="I29" s="113" t="s">
+      <c r="I29" s="109" t="s">
         <v>5</v>
       </c>
-      <c r="J29" s="114">
+      <c r="J29" s="110">
         <v>12</v>
       </c>
-      <c r="K29" s="113" t="str">
+      <c r="K29" s="109" t="str">
         <f>"slide-"&amp;D29&amp;"_"&amp;G29&amp;"_"&amp;Таблица12[[#This Row],['#3]]</f>
         <v>slide-2_5_12</v>
       </c>
-      <c r="L29" s="113"/>
-      <c r="M29" s="113"/>
-      <c r="N29" s="113"/>
-      <c r="O29" s="113"/>
+      <c r="L29" s="109"/>
+      <c r="M29" s="109"/>
+      <c r="N29" s="109"/>
+      <c r="O29" s="109"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B30" s="110"/>
-      <c r="C30" s="110"/>
-      <c r="D30" s="111">
+      <c r="B30" s="106"/>
+      <c r="C30" s="106"/>
+      <c r="D30" s="107">
         <v>2</v>
       </c>
-      <c r="E30" s="112"/>
-      <c r="F30" s="113"/>
-      <c r="G30" s="114">
+      <c r="E30" s="108"/>
+      <c r="F30" s="109"/>
+      <c r="G30" s="110">
         <v>5</v>
       </c>
-      <c r="H30" s="115" t="s">
+      <c r="H30" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="I30" s="113" t="s">
+      <c r="I30" s="109" t="s">
         <v>6</v>
       </c>
-      <c r="J30" s="114">
+      <c r="J30" s="110">
         <v>13</v>
       </c>
-      <c r="K30" s="113" t="str">
+      <c r="K30" s="109" t="str">
         <f>"slide-"&amp;D30&amp;"_"&amp;G30&amp;"_"&amp;Таблица12[[#This Row],['#3]]</f>
         <v>slide-2_5_13</v>
       </c>
-      <c r="L30" s="113"/>
-      <c r="M30" s="113"/>
-      <c r="N30" s="113"/>
-      <c r="O30" s="113"/>
+      <c r="L30" s="109"/>
+      <c r="M30" s="109"/>
+      <c r="N30" s="109"/>
+      <c r="O30" s="109"/>
     </row>
     <row r="31" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="110"/>
-      <c r="C31" s="110"/>
-      <c r="D31" s="111">
+      <c r="B31" s="106"/>
+      <c r="C31" s="106"/>
+      <c r="D31" s="107">
         <v>2</v>
       </c>
-      <c r="E31" s="112"/>
-      <c r="F31" s="113"/>
-      <c r="G31" s="114">
+      <c r="E31" s="108"/>
+      <c r="F31" s="109"/>
+      <c r="G31" s="110">
         <v>5</v>
       </c>
-      <c r="H31" s="115" t="s">
+      <c r="H31" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="I31" s="113" t="s">
+      <c r="I31" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="J31" s="114">
+      <c r="J31" s="110">
         <v>14</v>
       </c>
-      <c r="K31" s="113" t="str">
+      <c r="K31" s="109" t="str">
         <f>"slide-"&amp;D31&amp;"_"&amp;G31&amp;"_"&amp;Таблица12[[#This Row],['#3]]</f>
         <v>slide-2_5_14</v>
       </c>
-      <c r="L31" s="113"/>
-      <c r="M31" s="113"/>
-      <c r="N31" s="113"/>
-      <c r="O31" s="113"/>
+      <c r="L31" s="109"/>
+      <c r="M31" s="109"/>
+      <c r="N31" s="109"/>
+      <c r="O31" s="109"/>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B32" s="116"/>
-      <c r="C32" s="116"/>
-      <c r="D32" s="117">
+      <c r="B32" s="112"/>
+      <c r="C32" s="112"/>
+      <c r="D32" s="113">
         <v>2</v>
       </c>
-      <c r="E32" s="118" t="s">
+      <c r="E32" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="F32" s="119" t="s">
+      <c r="F32" s="115" t="s">
         <v>12</v>
       </c>
-      <c r="G32" s="120">
+      <c r="G32" s="116">
         <v>6</v>
       </c>
-      <c r="H32" s="121" t="s">
+      <c r="H32" s="117" t="s">
         <v>2</v>
       </c>
-      <c r="I32" s="119" t="s">
+      <c r="I32" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="J32" s="120">
+      <c r="J32" s="116">
         <v>15</v>
       </c>
-      <c r="K32" s="119" t="str">
+      <c r="K32" s="115" t="str">
         <f>"slide-"&amp;D32&amp;"_"&amp;G32&amp;"_"&amp;Таблица12[[#This Row],['#3]]</f>
         <v>slide-2_6_15</v>
       </c>
-      <c r="L32" s="119"/>
-      <c r="M32" s="119"/>
-      <c r="N32" s="119"/>
-      <c r="O32" s="119"/>
+      <c r="L32" s="115"/>
+      <c r="M32" s="115"/>
+      <c r="N32" s="115"/>
+      <c r="O32" s="115"/>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B33" s="110"/>
-      <c r="C33" s="110"/>
-      <c r="D33" s="111">
+      <c r="B33" s="106"/>
+      <c r="C33" s="106"/>
+      <c r="D33" s="107">
         <v>2</v>
       </c>
-      <c r="E33" s="112"/>
-      <c r="F33" s="113"/>
-      <c r="G33" s="114">
+      <c r="E33" s="108"/>
+      <c r="F33" s="109"/>
+      <c r="G33" s="110">
         <v>6</v>
       </c>
-      <c r="H33" s="115" t="s">
+      <c r="H33" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="I33" s="113" t="s">
+      <c r="I33" s="109" t="s">
         <v>5</v>
       </c>
-      <c r="J33" s="114">
+      <c r="J33" s="110">
         <v>16</v>
       </c>
-      <c r="K33" s="113" t="str">
+      <c r="K33" s="109" t="str">
         <f>"slide-"&amp;D33&amp;"_"&amp;G33&amp;"_"&amp;Таблица12[[#This Row],['#3]]</f>
         <v>slide-2_6_16</v>
       </c>
-      <c r="L33" s="113"/>
-      <c r="M33" s="113"/>
-      <c r="N33" s="113"/>
-      <c r="O33" s="113"/>
+      <c r="L33" s="109"/>
+      <c r="M33" s="109"/>
+      <c r="N33" s="109"/>
+      <c r="O33" s="109"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B34" s="110"/>
-      <c r="C34" s="110"/>
-      <c r="D34" s="111">
+      <c r="B34" s="106"/>
+      <c r="C34" s="106"/>
+      <c r="D34" s="107">
         <v>2</v>
       </c>
-      <c r="E34" s="112"/>
-      <c r="F34" s="113"/>
-      <c r="G34" s="114">
+      <c r="E34" s="108"/>
+      <c r="F34" s="109"/>
+      <c r="G34" s="110">
         <v>6</v>
       </c>
-      <c r="H34" s="115" t="s">
+      <c r="H34" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="I34" s="113" t="s">
+      <c r="I34" s="109" t="s">
         <v>6</v>
       </c>
-      <c r="J34" s="114">
+      <c r="J34" s="110">
         <v>17</v>
       </c>
-      <c r="K34" s="113" t="str">
+      <c r="K34" s="109" t="str">
         <f>"slide-"&amp;D34&amp;"_"&amp;G34&amp;"_"&amp;Таблица12[[#This Row],['#3]]</f>
         <v>slide-2_6_17</v>
       </c>
-      <c r="L34" s="113"/>
-      <c r="M34" s="113"/>
-      <c r="N34" s="113"/>
-      <c r="O34" s="113"/>
+      <c r="L34" s="109"/>
+      <c r="M34" s="109"/>
+      <c r="N34" s="109"/>
+      <c r="O34" s="109"/>
     </row>
     <row r="35" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="122"/>
-      <c r="C35" s="122"/>
-      <c r="D35" s="123">
+      <c r="B35" s="118"/>
+      <c r="C35" s="118"/>
+      <c r="D35" s="119">
         <v>2</v>
       </c>
-      <c r="E35" s="124"/>
-      <c r="F35" s="125"/>
-      <c r="G35" s="126">
+      <c r="E35" s="120"/>
+      <c r="F35" s="121"/>
+      <c r="G35" s="122">
         <v>6</v>
       </c>
-      <c r="H35" s="127" t="s">
+      <c r="H35" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="I35" s="125" t="s">
+      <c r="I35" s="121" t="s">
         <v>7</v>
       </c>
-      <c r="J35" s="126">
+      <c r="J35" s="122">
         <v>18</v>
       </c>
-      <c r="K35" s="125" t="str">
+      <c r="K35" s="121" t="str">
         <f>"slide-"&amp;D35&amp;"_"&amp;G35&amp;"_"&amp;Таблица12[[#This Row],['#3]]</f>
         <v>slide-2_6_18</v>
       </c>
-      <c r="L35" s="125"/>
-      <c r="M35" s="125"/>
-      <c r="N35" s="125"/>
-      <c r="O35" s="125"/>
+      <c r="L35" s="121"/>
+      <c r="M35" s="121"/>
+      <c r="N35" s="121"/>
+      <c r="O35" s="121"/>
     </row>
     <row r="36" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="69"/>
-      <c r="C36" s="69"/>
-      <c r="D36" s="75"/>
-      <c r="E36" s="63"/>
-      <c r="F36" s="84"/>
-      <c r="G36" s="90" t="s">
+      <c r="B36" s="65"/>
+      <c r="C36" s="65"/>
+      <c r="D36" s="71"/>
+      <c r="E36" s="59"/>
+      <c r="F36" s="80"/>
+      <c r="G36" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="H36" s="101" t="s">
+      <c r="H36" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="I36" s="80" t="s">
+      <c r="I36" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="J36" s="90">
+      <c r="J36" s="86">
         <v>1</v>
       </c>
-      <c r="K36" s="84" t="str">
+      <c r="K36" s="80" t="str">
         <f>"slide-"&amp;G36&amp;"_"&amp;Таблица12[[#This Row],['#3]]</f>
         <v>slide-faq_1</v>
       </c>
-      <c r="L36" s="84"/>
-      <c r="M36" s="84"/>
-      <c r="N36" s="84"/>
-      <c r="O36" s="84"/>
+      <c r="L36" s="80"/>
+      <c r="M36" s="80"/>
+      <c r="N36" s="80"/>
+      <c r="O36" s="80"/>
     </row>
     <row r="37" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="70"/>
-      <c r="C37" s="70"/>
-      <c r="D37" s="76"/>
-      <c r="E37" s="103"/>
-      <c r="F37" s="102"/>
-      <c r="G37" s="90" t="s">
+      <c r="B37" s="66"/>
+      <c r="C37" s="66"/>
+      <c r="D37" s="72"/>
+      <c r="E37" s="99"/>
+      <c r="F37" s="98"/>
+      <c r="G37" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="H37" s="97" t="s">
+      <c r="H37" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="I37" s="81" t="s">
+      <c r="I37" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="J37" s="92">
+      <c r="J37" s="88">
         <v>2</v>
       </c>
-      <c r="K37" s="84" t="str">
+      <c r="K37" s="80" t="str">
         <f>"slide-"&amp;G37&amp;"_"&amp;Таблица12[[#This Row],['#3]]</f>
         <v>slide-faq_2</v>
       </c>
-      <c r="L37" s="83"/>
-      <c r="M37" s="83"/>
-      <c r="N37" s="83"/>
-      <c r="O37" s="83"/>
+      <c r="L37" s="79"/>
+      <c r="M37" s="79"/>
+      <c r="N37" s="79"/>
+      <c r="O37" s="79"/>
     </row>
     <row r="38" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="70"/>
-      <c r="C38" s="70"/>
-      <c r="D38" s="76"/>
-      <c r="E38" s="103"/>
-      <c r="F38" s="102"/>
-      <c r="G38" s="90" t="s">
+      <c r="B38" s="66"/>
+      <c r="C38" s="66"/>
+      <c r="D38" s="72"/>
+      <c r="E38" s="99"/>
+      <c r="F38" s="98"/>
+      <c r="G38" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="H38" s="98" t="s">
+      <c r="H38" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="I38" s="82" t="s">
+      <c r="I38" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="J38" s="92">
+      <c r="J38" s="88">
         <v>3</v>
       </c>
-      <c r="K38" s="84" t="str">
+      <c r="K38" s="80" t="str">
         <f>"slide-"&amp;G38&amp;"_"&amp;Таблица12[[#This Row],['#3]]</f>
         <v>slide-faq_3</v>
       </c>
-      <c r="L38" s="83"/>
-      <c r="M38" s="83"/>
-      <c r="N38" s="83"/>
-      <c r="O38" s="83"/>
+      <c r="L38" s="79"/>
+      <c r="M38" s="79"/>
+      <c r="N38" s="79"/>
+      <c r="O38" s="79"/>
     </row>
     <row r="39" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="70"/>
-      <c r="C39" s="70"/>
-      <c r="D39" s="76"/>
-      <c r="E39" s="103"/>
-      <c r="F39" s="102"/>
-      <c r="G39" s="90" t="s">
+      <c r="B39" s="66"/>
+      <c r="C39" s="66"/>
+      <c r="D39" s="72"/>
+      <c r="E39" s="99"/>
+      <c r="F39" s="98"/>
+      <c r="G39" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="H39" s="97" t="s">
+      <c r="H39" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="I39" s="81" t="s">
+      <c r="I39" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="J39" s="92">
+      <c r="J39" s="88">
         <v>4</v>
       </c>
-      <c r="K39" s="84" t="str">
+      <c r="K39" s="80" t="str">
         <f>"slide-"&amp;G39&amp;"_"&amp;Таблица12[[#This Row],['#3]]</f>
         <v>slide-faq_4</v>
       </c>
-      <c r="L39" s="83"/>
-      <c r="M39" s="83"/>
-      <c r="N39" s="83"/>
-      <c r="O39" s="83"/>
+      <c r="L39" s="79"/>
+      <c r="M39" s="79"/>
+      <c r="N39" s="79"/>
+      <c r="O39" s="79"/>
     </row>
     <row r="40" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="70"/>
-      <c r="C40" s="70"/>
-      <c r="D40" s="76"/>
-      <c r="E40" s="103"/>
-      <c r="F40" s="102"/>
-      <c r="G40" s="90" t="s">
+      <c r="B40" s="66"/>
+      <c r="C40" s="66"/>
+      <c r="D40" s="72"/>
+      <c r="E40" s="99"/>
+      <c r="F40" s="98"/>
+      <c r="G40" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="H40" s="97" t="s">
+      <c r="H40" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="I40" s="81" t="s">
+      <c r="I40" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="J40" s="92">
+      <c r="J40" s="88">
         <v>5</v>
       </c>
-      <c r="K40" s="84" t="str">
+      <c r="K40" s="80" t="str">
         <f>"slide-"&amp;G40&amp;"_"&amp;Таблица12[[#This Row],['#3]]</f>
         <v>slide-faq_5</v>
       </c>
-      <c r="L40" s="83"/>
-      <c r="M40" s="83"/>
-      <c r="N40" s="83"/>
-      <c r="O40" s="83"/>
+      <c r="L40" s="79"/>
+      <c r="M40" s="79"/>
+      <c r="N40" s="79"/>
+      <c r="O40" s="79"/>
     </row>
     <row r="41" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="70"/>
-      <c r="C41" s="70"/>
-      <c r="D41" s="76"/>
-      <c r="E41" s="103"/>
-      <c r="F41" s="102"/>
-      <c r="G41" s="90" t="s">
+      <c r="B41" s="66"/>
+      <c r="C41" s="66"/>
+      <c r="D41" s="72"/>
+      <c r="E41" s="99"/>
+      <c r="F41" s="98"/>
+      <c r="G41" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="H41" s="97" t="s">
+      <c r="H41" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="I41" s="81" t="s">
+      <c r="I41" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="J41" s="92">
+      <c r="J41" s="88">
         <v>6</v>
       </c>
-      <c r="K41" s="84" t="str">
+      <c r="K41" s="80" t="str">
         <f>"slide-"&amp;G41&amp;"_"&amp;Таблица12[[#This Row],['#3]]</f>
         <v>slide-faq_6</v>
       </c>
-      <c r="L41" s="83"/>
-      <c r="M41" s="83"/>
-      <c r="N41" s="83"/>
-      <c r="O41" s="83"/>
+      <c r="L41" s="79"/>
+      <c r="M41" s="79"/>
+      <c r="N41" s="79"/>
+      <c r="O41" s="79"/>
     </row>
     <row r="42" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="70"/>
-      <c r="C42" s="70"/>
-      <c r="D42" s="76"/>
-      <c r="E42" s="103"/>
-      <c r="F42" s="102"/>
-      <c r="G42" s="90" t="s">
+      <c r="B42" s="66"/>
+      <c r="C42" s="66"/>
+      <c r="D42" s="72"/>
+      <c r="E42" s="99"/>
+      <c r="F42" s="98"/>
+      <c r="G42" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="H42" s="97" t="s">
+      <c r="H42" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="I42" s="81" t="s">
+      <c r="I42" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="J42" s="92">
+      <c r="J42" s="88">
         <v>7</v>
       </c>
-      <c r="K42" s="84" t="str">
+      <c r="K42" s="80" t="str">
         <f>"slide-"&amp;G42&amp;"_"&amp;Таблица12[[#This Row],['#3]]</f>
         <v>slide-faq_7</v>
       </c>
-      <c r="L42" s="83"/>
-      <c r="M42" s="83"/>
-      <c r="N42" s="83"/>
-      <c r="O42" s="83"/>
+      <c r="L42" s="79"/>
+      <c r="M42" s="79"/>
+      <c r="N42" s="79"/>
+      <c r="O42" s="79"/>
     </row>
     <row r="43" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="70"/>
-      <c r="C43" s="70"/>
-      <c r="D43" s="76"/>
-      <c r="E43" s="103"/>
-      <c r="F43" s="102"/>
-      <c r="G43" s="90" t="s">
+      <c r="B43" s="66"/>
+      <c r="C43" s="66"/>
+      <c r="D43" s="72"/>
+      <c r="E43" s="99"/>
+      <c r="F43" s="98"/>
+      <c r="G43" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="H43" s="97" t="s">
+      <c r="H43" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="I43" s="81" t="s">
+      <c r="I43" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="J43" s="92">
+      <c r="J43" s="88">
         <v>8</v>
       </c>
-      <c r="K43" s="84" t="str">
+      <c r="K43" s="80" t="str">
         <f>"slide-"&amp;G43&amp;"_"&amp;Таблица12[[#This Row],['#3]]</f>
         <v>slide-faq_8</v>
       </c>
-      <c r="L43" s="83"/>
-      <c r="M43" s="83"/>
-      <c r="N43" s="83"/>
-      <c r="O43" s="83"/>
+      <c r="L43" s="79"/>
+      <c r="M43" s="79"/>
+      <c r="N43" s="79"/>
+      <c r="O43" s="79"/>
     </row>
     <row r="44" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="70"/>
-      <c r="C44" s="70"/>
-      <c r="D44" s="76"/>
-      <c r="E44" s="103"/>
-      <c r="F44" s="102"/>
-      <c r="G44" s="90" t="s">
+      <c r="B44" s="66"/>
+      <c r="C44" s="66"/>
+      <c r="D44" s="72"/>
+      <c r="E44" s="99"/>
+      <c r="F44" s="98"/>
+      <c r="G44" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="H44" s="97" t="s">
+      <c r="H44" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="I44" s="81" t="s">
+      <c r="I44" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="J44" s="92">
+      <c r="J44" s="88">
         <v>9</v>
       </c>
-      <c r="K44" s="84" t="str">
+      <c r="K44" s="80" t="str">
         <f>"slide-"&amp;G44&amp;"_"&amp;Таблица12[[#This Row],['#3]]</f>
         <v>slide-faq_9</v>
       </c>
-      <c r="L44" s="83"/>
-      <c r="M44" s="83"/>
-      <c r="N44" s="83"/>
-      <c r="O44" s="83"/>
+      <c r="L44" s="79"/>
+      <c r="M44" s="79"/>
+      <c r="N44" s="79"/>
+      <c r="O44" s="79"/>
     </row>
     <row r="45" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="70"/>
-      <c r="C45" s="70"/>
-      <c r="D45" s="76"/>
-      <c r="E45" s="103"/>
-      <c r="F45" s="102"/>
-      <c r="G45" s="90" t="s">
+      <c r="B45" s="66"/>
+      <c r="C45" s="66"/>
+      <c r="D45" s="72"/>
+      <c r="E45" s="99"/>
+      <c r="F45" s="98"/>
+      <c r="G45" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="H45" s="97" t="s">
+      <c r="H45" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="I45" s="81" t="s">
+      <c r="I45" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="J45" s="92">
+      <c r="J45" s="88">
         <v>10</v>
       </c>
-      <c r="K45" s="84" t="str">
+      <c r="K45" s="80" t="str">
         <f>"slide-"&amp;G45&amp;"_"&amp;Таблица12[[#This Row],['#3]]</f>
         <v>slide-faq_10</v>
       </c>
-      <c r="L45" s="83"/>
-      <c r="M45" s="83"/>
-      <c r="N45" s="83"/>
-      <c r="O45" s="83"/>
+      <c r="L45" s="79"/>
+      <c r="M45" s="79"/>
+      <c r="N45" s="79"/>
+      <c r="O45" s="79"/>
     </row>
     <row r="46" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="70"/>
-      <c r="C46" s="70"/>
-      <c r="D46" s="76"/>
-      <c r="E46" s="103"/>
-      <c r="F46" s="102"/>
-      <c r="G46" s="90" t="s">
+      <c r="B46" s="66"/>
+      <c r="C46" s="66"/>
+      <c r="D46" s="72"/>
+      <c r="E46" s="99"/>
+      <c r="F46" s="98"/>
+      <c r="G46" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="H46" s="97" t="s">
+      <c r="H46" s="93" t="s">
         <v>24</v>
       </c>
-      <c r="I46" s="81" t="s">
+      <c r="I46" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="J46" s="92">
+      <c r="J46" s="88">
         <v>11</v>
       </c>
-      <c r="K46" s="84" t="str">
+      <c r="K46" s="80" t="str">
         <f>"slide-"&amp;G46&amp;"_"&amp;Таблица12[[#This Row],['#3]]</f>
         <v>slide-faq_11</v>
       </c>
-      <c r="L46" s="83"/>
-      <c r="M46" s="83"/>
-      <c r="N46" s="83"/>
-      <c r="O46" s="83"/>
+      <c r="L46" s="79"/>
+      <c r="M46" s="79"/>
+      <c r="N46" s="79"/>
+      <c r="O46" s="79"/>
     </row>
     <row r="47" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="70"/>
-      <c r="C47" s="70"/>
-      <c r="D47" s="76"/>
-      <c r="E47" s="103"/>
-      <c r="F47" s="102"/>
-      <c r="G47" s="90" t="s">
+      <c r="B47" s="66"/>
+      <c r="C47" s="66"/>
+      <c r="D47" s="72"/>
+      <c r="E47" s="99"/>
+      <c r="F47" s="98"/>
+      <c r="G47" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="H47" s="97" t="s">
+      <c r="H47" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="I47" s="81" t="s">
+      <c r="I47" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="J47" s="92">
+      <c r="J47" s="88">
         <v>12</v>
       </c>
-      <c r="K47" s="84" t="str">
+      <c r="K47" s="80" t="str">
         <f>"slide-"&amp;G47&amp;"_"&amp;Таблица12[[#This Row],['#3]]</f>
         <v>slide-faq_12</v>
       </c>
-      <c r="L47" s="83"/>
-      <c r="M47" s="83"/>
-      <c r="N47" s="83"/>
-      <c r="O47" s="83"/>
+      <c r="L47" s="79"/>
+      <c r="M47" s="79"/>
+      <c r="N47" s="79"/>
+      <c r="O47" s="79"/>
     </row>
     <row r="48" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="70"/>
-      <c r="C48" s="70"/>
-      <c r="D48" s="76"/>
-      <c r="E48" s="103"/>
-      <c r="F48" s="102"/>
-      <c r="G48" s="90" t="s">
+      <c r="B48" s="66"/>
+      <c r="C48" s="66"/>
+      <c r="D48" s="72"/>
+      <c r="E48" s="99"/>
+      <c r="F48" s="98"/>
+      <c r="G48" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="H48" s="98" t="s">
+      <c r="H48" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="I48" s="82" t="s">
+      <c r="I48" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="J48" s="92">
+      <c r="J48" s="88">
         <v>13</v>
       </c>
-      <c r="K48" s="84" t="str">
+      <c r="K48" s="80" t="str">
         <f>"slide-"&amp;G48&amp;"_"&amp;Таблица12[[#This Row],['#3]]</f>
         <v>slide-faq_13</v>
       </c>
-      <c r="L48" s="83"/>
-      <c r="M48" s="83"/>
-      <c r="N48" s="83"/>
-      <c r="O48" s="83"/>
+      <c r="L48" s="79"/>
+      <c r="M48" s="79"/>
+      <c r="N48" s="79"/>
+      <c r="O48" s="79"/>
     </row>
     <row r="49" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="70"/>
-      <c r="C49" s="70"/>
-      <c r="D49" s="76"/>
-      <c r="E49" s="103"/>
-      <c r="F49" s="102"/>
-      <c r="G49" s="90" t="s">
+      <c r="B49" s="66"/>
+      <c r="C49" s="66"/>
+      <c r="D49" s="72"/>
+      <c r="E49" s="99"/>
+      <c r="F49" s="98"/>
+      <c r="G49" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="H49" s="98" t="s">
+      <c r="H49" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="I49" s="82" t="s">
+      <c r="I49" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="J49" s="92">
+      <c r="J49" s="88">
         <v>14</v>
       </c>
-      <c r="K49" s="84" t="str">
+      <c r="K49" s="80" t="str">
         <f>"slide-"&amp;G49&amp;"_"&amp;Таблица12[[#This Row],['#3]]</f>
         <v>slide-faq_14</v>
       </c>
-      <c r="L49" s="83"/>
-      <c r="M49" s="83"/>
-      <c r="N49" s="83"/>
-      <c r="O49" s="83"/>
+      <c r="L49" s="79"/>
+      <c r="M49" s="79"/>
+      <c r="N49" s="79"/>
+      <c r="O49" s="79"/>
     </row>
     <row r="50" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="70"/>
-      <c r="C50" s="70"/>
-      <c r="D50" s="76"/>
-      <c r="E50" s="103"/>
-      <c r="F50" s="102"/>
-      <c r="G50" s="90" t="s">
+      <c r="B50" s="66"/>
+      <c r="C50" s="66"/>
+      <c r="D50" s="72"/>
+      <c r="E50" s="99"/>
+      <c r="F50" s="98"/>
+      <c r="G50" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="H50" s="97" t="s">
+      <c r="H50" s="93" t="s">
         <v>28</v>
       </c>
-      <c r="I50" s="81" t="s">
+      <c r="I50" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="J50" s="92">
+      <c r="J50" s="88">
         <v>15</v>
       </c>
-      <c r="K50" s="84" t="str">
+      <c r="K50" s="80" t="str">
         <f>"slide-"&amp;G50&amp;"_"&amp;Таблица12[[#This Row],['#3]]</f>
         <v>slide-faq_15</v>
       </c>
-      <c r="L50" s="83"/>
-      <c r="M50" s="83"/>
-      <c r="N50" s="83"/>
-      <c r="O50" s="83"/>
+      <c r="L50" s="79"/>
+      <c r="M50" s="79"/>
+      <c r="N50" s="79"/>
+      <c r="O50" s="79"/>
     </row>
     <row r="51" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B51" s="70"/>
-      <c r="C51" s="70"/>
-      <c r="D51" s="76"/>
-      <c r="E51" s="103"/>
-      <c r="F51" s="102"/>
-      <c r="G51" s="90" t="s">
+      <c r="B51" s="66"/>
+      <c r="C51" s="66"/>
+      <c r="D51" s="72"/>
+      <c r="E51" s="99"/>
+      <c r="F51" s="98"/>
+      <c r="G51" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="H51" s="64" t="s">
+      <c r="H51" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="I51" s="83" t="s">
+      <c r="I51" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="J51" s="92">
+      <c r="J51" s="88">
         <v>16</v>
       </c>
-      <c r="K51" s="84" t="str">
+      <c r="K51" s="80" t="str">
         <f>"slide-"&amp;G51&amp;"_"&amp;Таблица12[[#This Row],['#3]]</f>
         <v>slide-faq_16</v>
       </c>
-      <c r="L51" s="83"/>
-      <c r="M51" s="83"/>
-      <c r="N51" s="83"/>
-      <c r="O51" s="83"/>
+      <c r="L51" s="79"/>
+      <c r="M51" s="79"/>
+      <c r="N51" s="79"/>
+      <c r="O51" s="79"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
